--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.22</v>
@@ -1496,19 +1496,19 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YkKkS3eo</t>
+          <t>UmGvDce3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,354 +1638,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>U.N.A.M.- Pumas</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>67</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BA7" t="n">
         <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>UmGvDce3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>00:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Vancouver Whitecaps</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>17</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD8" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,52 +929,52 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
@@ -986,31 +986,31 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
         <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1046,7 +1046,7 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1055,13 +1055,13 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
@@ -1114,7 +1114,7 @@
         <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>4.5</v>
@@ -1129,10 +1129,10 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -1141,16 +1141,16 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.8</v>
@@ -1159,7 +1159,7 @@
         <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>8.5</v>
@@ -1177,10 +1177,10 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1329,10 +1329,10 @@
         <v>3.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U5" t="n">
         <v>1.36</v>
@@ -1347,7 +1347,7 @@
         <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
@@ -1359,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
@@ -1395,13 +1395,13 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AT5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU5" t="n">
         <v>6.5</v>
@@ -1623,188 +1623,6 @@
       </c>
       <c r="BD6" t="n">
         <v>81</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UmGvDce3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>00:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Vancouver Whitecaps</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>17</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ttsoJXeb</t>
+          <t>YBPga5g4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
         <v>17</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AI2" t="n">
         <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
       </c>
       <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>23</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MaEx9mYj</t>
+          <t>ttsoJXeb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,160 +920,160 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kashima Antlers</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>17</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
         <v>19</v>
       </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>11</v>
       </c>
-      <c r="AF3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OOY1FkeN</t>
+          <t>MaEx9mYj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.29</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13</v>
       </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
         <v>51</v>
       </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eg1OWjQc</t>
+          <t>OOY1FkeN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.95</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
         <v>26</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>19</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
         <v>23</v>
       </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>21</v>
       </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>81</v>
       </c>
-      <c r="AT5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>29</v>
-      </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2FX5E9AT</t>
+          <t>Eg1OWjQc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,162 +1466,890 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shonan Bellmare</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
       <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
         <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
       </c>
       <c r="AC6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH6" t="n">
         <v>15</v>
       </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
         <v>13</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AM6" t="n">
         <v>17</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>26</v>
-      </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2FX5E9AT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hokkaido Consadole Sapporo</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
         <v>101</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>z32KXWAi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8dAY9TIp</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Iwata</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
         <v>41</v>
       </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>21</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>51</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
         <v>51</v>
       </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD6" t="n">
+      <c r="AW9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>x8zfHBQA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -759,7 +759,7 @@
         <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -789,13 +789,13 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>8.5</v>
@@ -813,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,43 +989,43 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1141,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -1159,7 +1159,7 @@
         <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>21</v>
@@ -1204,13 +1204,13 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>
@@ -1293,76 +1293,76 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>8.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
-      </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1371,19 +1371,19 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1392,16 +1392,16 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1410,22 +1410,22 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>23</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>81</v>
@@ -1434,7 +1434,7 @@
         <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1475,34 +1475,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.4</v>
@@ -1511,115 +1511,115 @@
         <v>2.88</v>
       </c>
       <c r="S6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W6" t="n">
         <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>34</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
         <v>67</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1681,16 +1681,16 @@
         <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1699,10 +1699,10 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
         <v>11</v>
@@ -1735,13 +1735,13 @@
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
@@ -1768,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>101</v>
@@ -2224,25 +2224,25 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>1.8</v>
@@ -2269,7 +2269,7 @@
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -789,13 +789,13 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>8.5</v>
@@ -813,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -834,7 +834,7 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -843,19 +843,19 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -867,10 +867,10 @@
         <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -885,7 +885,7 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
@@ -938,13 +938,13 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -953,37 +953,37 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.53</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -992,10 +992,10 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1004,13 +1004,13 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1043,16 +1043,16 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
@@ -1061,16 +1061,16 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1296,31 +1296,31 @@
         <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1329,19 +1329,19 @@
         <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>8.5</v>
@@ -1356,31 +1356,31 @@
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1404,10 +1404,10 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1416,7 +1416,7 @@
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
@@ -1434,7 +1434,7 @@
         <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1493,10 +1493,10 @@
         <v>2.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O6" t="n">
         <v>1.11</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
@@ -1869,10 +1869,10 @@
         <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -1890,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -1923,7 +1923,7 @@
         <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1947,7 +1947,7 @@
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>81</v>
@@ -1965,7 +1965,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1974,10 +1974,10 @@
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -2036,7 +2036,7 @@
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2072,7 +2072,7 @@
         <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
@@ -2081,10 +2081,10 @@
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -2105,7 +2105,7 @@
         <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.5</v>
@@ -2221,10 +2221,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -2233,10 +2233,10 @@
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -783,10 +783,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
         <v>1.7</v>
@@ -849,13 +849,13 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -891,7 +891,7 @@
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ttsoJXeb</t>
+          <t>z32KXWAi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,31 +920,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nagoya Grampus</t>
+          <t>Avispa Fukuoka</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.91</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -965,31 +965,31 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -998,79 +998,79 @@
         <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
         <v>41</v>
       </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MaEx9mYj</t>
+          <t>8dAY9TIp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Gamba Osaka</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
         <v>26</v>
       </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
       <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
         <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>19</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
         <v>51</v>
       </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OOY1FkeN</t>
+          <t>x8zfHBQA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FC Tokyo</t>
+          <t>Albirex Niigata</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1317,43 +1317,43 @@
         <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
@@ -1362,40 +1362,40 @@
         <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
         <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1413,31 +1413,31 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eg1OWjQc</t>
+          <t>fNivGgyi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,901 +1456,173 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
         <v>21</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W6" t="n">
-        <v>19</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP6" t="n">
         <v>26</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
         <v>51</v>
       </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>34</v>
-      </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2FX5E9AT</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JAPAN - J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Shonan Bellmare</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Hokkaido Consadole Sapporo</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>17</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
         <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>z32KXWAi</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JAPAN - J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cerezo Osaka</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Avispa Fukuoka</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8dAY9TIp</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JAPAN - J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Iwata</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Gamba Osaka</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>x8zfHBQA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>JAPAN - J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Kashiwa Reysol</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Albirex Niigata</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,28 +777,28 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -807,16 +807,16 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
@@ -843,34 +843,34 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -885,13 +885,13 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -971,16 +971,16 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1037,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1064,13 +1064,13 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>2.3</v>
@@ -1123,43 +1123,43 @@
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
         <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1171,13 +1171,13 @@
         <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,13 +1189,13 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
@@ -1204,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>5</v>
@@ -1219,22 +1219,22 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>4.33</v>
@@ -1243,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1314,7 +1314,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>z32KXWAi</t>
+          <t>fNivGgyi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,718 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Avispa Fukuoka</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.4</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>15</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>8dAY9TIp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>JAPAN - J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Iwata</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gamba Osaka</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>x8zfHBQA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JAPAN - J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Kashiwa Reysol</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albirex Niigata</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>fNivGgyi</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>04:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Suwon FC</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gangwon</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YBPga5g4</t>
+          <t>2iHAeNhT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,160 +738,160 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W2" t="n">
+        <v>13</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
         <v>17</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>12</v>
       </c>
-      <c r="AA2" t="n">
-        <v>11</v>
-      </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
         <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>251</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -965,10 +965,10 @@
         <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1004,13 +1004,13 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1028,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>501</v>
       </c>
       <c r="AX3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY3" t="n">
         <v>15</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
         <v>23</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>51</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BB3" t="n">
         <v>67</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BC3" t="n">
         <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -828,37 +828,37 @@
         <v>81</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
         <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
         <v>67</v>
@@ -870,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
         <v>251</v>
@@ -879,7 +879,7 @@
         <v>6.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>
@@ -935,7 +935,7 @@
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -965,10 +965,10 @@
         <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -1004,13 +1004,13 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -768,13 +768,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
@@ -795,10 +795,10 @@
         <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -822,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>81</v>
@@ -888,7 +888,7 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
         <v>101</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -962,7 +962,7 @@
         <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1028,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -795,10 +795,10 @@
         <v>2.63</v>
       </c>
       <c r="W2" t="n">
+        <v>13</v>
+      </c>
+      <c r="X2" t="n">
         <v>12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -822,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>81</v>
@@ -831,7 +831,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -888,195 +888,13 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC2" t="n">
         <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>fNivGgyi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>04:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Suwon FC</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gangwon</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
@@ -765,22 +765,22 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.22</v>
@@ -795,13 +795,13 @@
         <v>2.63</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -813,22 +813,22 @@
         <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>26</v>
@@ -852,16 +852,16 @@
         <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
         <v>4</v>
@@ -888,13 +888,377 @@
         <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC2" t="n">
         <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WnPgMvn1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>86gnZDvo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -783,10 +783,10 @@
         <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.44</v>
@@ -834,7 +834,7 @@
         <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WnPgMvn1</t>
+          <t>U3dLY70k</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -915,90 +915,90 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1007,67 +1007,67 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>15</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
       <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
         <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>101</v>
@@ -1076,189 +1076,1281 @@
         <v>251</v>
       </c>
       <c r="BD3" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>vPbLFT9h</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flora</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CxcTD7v5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Kalju</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parnu JK Vaprus</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANFWCRgB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Narva</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>hn5yCo9H</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nomme Utd</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>40</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IFcPEmPb</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ESTONIA - MEISTRILIIGA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Levadia</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WnPgMvn1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>86gnZDvo</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>09/11/2024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>TURKEY - 1. LIG</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Istanbulspor AS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Adanaspor AS</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.75</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="n">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>7</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="AD10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
         <v>251</v>
       </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BD10" t="n">
         <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2iHAeNhT</t>
+          <t>U3dLY70k</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.75</v>
       </c>
-      <c r="H2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
-        <v>19</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>1.44</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.25</v>
-      </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
         <v>21</v>
       </c>
-      <c r="AD2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY2" t="n">
         <v>29</v>
       </c>
-      <c r="AM2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="AZ2" t="n">
         <v>81</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
         <v>251</v>
       </c>
-      <c r="AX2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BC2" t="n">
         <v>51</v>
       </c>
-      <c r="BB2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>101</v>
-      </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U3dLY70k</t>
+          <t>vPbLFT9h</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -915,165 +915,165 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.9</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="X3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>251</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vPbLFT9h</t>
+          <t>CxcTD7v5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,70 +1102,70 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>1.21</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.57</v>
       </c>
       <c r="K4" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>5.75</v>
+        <v>5.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="T4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
         <v>6.8</v>
@@ -1174,16 +1174,16 @@
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
         <v>60</v>
@@ -1192,22 +1192,22 @@
         <v>350</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
         <v>3.25</v>
@@ -1216,46 +1216,46 @@
         <v>5.1</v>
       </c>
       <c r="AP4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>11.25</v>
       </c>
       <c r="AR4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
         <v>150</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>51</v>
+        <v>11.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.25</v>
+        <v>60</v>
       </c>
       <c r="AY4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ4" t="n">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="BA4" t="n">
         <v>350</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BC4" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CxcTD7v5</t>
+          <t>ANFWCRgB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.21</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>10.5</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>3.05</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>16.5</v>
+        <v>14.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="U5" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.94</v>
+        <v>2.77</v>
       </c>
       <c r="W5" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>6.3</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.8</v>
       </c>
-      <c r="AA5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AE5" t="n">
-        <v>17.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>11.25</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>15.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>4.55</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11.25</v>
+        <v>40</v>
       </c>
       <c r="AR5" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AS5" t="n">
         <v>150</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AW5" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>60</v>
+        <v>16.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="BB5" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="BC5" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANFWCRgB</t>
+          <t>hn5yCo9H</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Nomme Utd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.65</v>
+        <v>1.62</v>
       </c>
       <c r="J6" t="n">
-        <v>2.65</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>14.7</v>
+        <v>13.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>4.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.53</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.43</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.73</v>
+        <v>2.42</v>
       </c>
       <c r="W6" t="n">
-        <v>10.25</v>
+        <v>13.5</v>
       </c>
       <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11.75</v>
       </c>
-      <c r="Y6" t="n">
-        <v>7.9</v>
-      </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC6" t="n">
-        <v>16</v>
-      </c>
       <c r="AD6" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AG6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR6" t="n">
         <v>120</v>
       </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AY6" t="n">
         <v>14</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BB6" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="BC6" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hn5yCo9H</t>
+          <t>IFcPEmPb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,160 +1648,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nomme Utd</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>13.4</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3.62</v>
+        <v>3.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="V7" t="n">
-        <v>2.42</v>
+        <v>2.29</v>
       </c>
       <c r="W7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>50</v>
       </c>
-      <c r="AA7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>110</v>
-      </c>
       <c r="AR7" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>51</v>
+        <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="BC7" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IFcPEmPb</t>
+          <t>hOj0ybX5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>1.23</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>5.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.87</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L8" t="n">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>3.72</v>
+        <v>4.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="R8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.93</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.29</v>
-      </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
         <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
         <v>200</v>
       </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AL8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP8" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
         <v>12</v>
       </c>
-      <c r="AP8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AX8" t="n">
         <v>50</v>
       </c>
-      <c r="AR8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AY8" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19.5</v>
+        <v>350</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="BB8" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="BC8" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WnPgMvn1</t>
+          <t>KAhhwK2g</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>12.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>3.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="W9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
       <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AQ9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AG9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>251</v>
-      </c>
       <c r="BD9" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>86gnZDvo</t>
+          <t>2Zcmv0mm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,173 +2184,1265 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.91</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L10" t="n">
         <v>2.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>b1idxvIa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Valmiera</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tukums 2000</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>46</v>
+      </c>
+      <c r="N11" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB11" t="n">
         <v>15</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AC11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6JdJC6D4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WGtMhTAs</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WnPgMvn1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>86gnZDvo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.2</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P15" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q15" t="n">
         <v>1.65</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R15" t="n">
         <v>2.2</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S15" t="n">
         <v>1.3</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T15" t="n">
         <v>3.4</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U15" t="n">
         <v>1.91</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V15" t="n">
         <v>1.8</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W15" t="n">
         <v>7.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X15" t="n">
         <v>7</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z15" t="n">
         <v>9</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA15" t="n">
         <v>11</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB15" t="n">
         <v>26</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC15" t="n">
         <v>15</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE15" t="n">
         <v>21</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF15" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG15" t="n">
         <v>301</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH15" t="n">
         <v>19</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI15" t="n">
         <v>41</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ15" t="n">
         <v>21</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK15" t="n">
         <v>81</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL15" t="n">
         <v>51</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM15" t="n">
         <v>51</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN15" t="n">
         <v>3.4</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO15" t="n">
         <v>6.5</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ15" t="n">
         <v>19</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR15" t="n">
         <v>41</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS15" t="n">
         <v>126</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT15" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU15" t="n">
         <v>9</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV15" t="n">
         <v>51</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC15" t="n">
         <v>126</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fDMH1y13</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y16" t="n">
         <v>8.5</v>
       </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
+      <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,52 +756,52 @@
         <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X2" t="n">
         <v>9</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -810,25 +810,25 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>10</v>
@@ -864,10 +864,10 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,19 +876,19 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>81</v>
       </c>
-      <c r="BA2" t="n">
-        <v>101</v>
-      </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -956,7 +956,7 @@
         <v>1.06</v>
       </c>
       <c r="P3" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q3" t="n">
         <v>1.53</v>
@@ -971,10 +971,10 @@
         <v>4.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>8.75</v>
@@ -1296,19 +1296,19 @@
         <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
         <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1362,13 +1362,13 @@
         <v>16.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE5" t="n">
         <v>9.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
         <v>120</v>
@@ -1389,7 +1389,7 @@
         <v>15.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN5" t="n">
         <v>4.55</v>
@@ -1401,7 +1401,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR5" t="n">
         <v>55</v>
@@ -1410,7 +1410,7 @@
         <v>150</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
         <v>6.3</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
         <v>1.62</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1517,22 +1517,22 @@
         <v>3.62</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V6" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>11.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
         <v>28</v>
@@ -1541,31 +1541,31 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF6" t="n">
         <v>35</v>
       </c>
       <c r="AG6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH6" t="n">
         <v>8.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AL6" t="n">
         <v>9.75</v>
@@ -1574,13 +1574,13 @@
         <v>15.5</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>110</v>
@@ -1595,22 +1595,22 @@
         <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY6" t="n">
         <v>14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
         <v>40</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="H7" t="n">
         <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1681,10 +1681,10 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
@@ -1705,64 +1705,64 @@
         <v>2.29</v>
       </c>
       <c r="W7" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>14.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF7" t="n">
         <v>32</v>
       </c>
       <c r="AG7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>17.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>50</v>
@@ -1771,10 +1771,10 @@
         <v>70</v>
       </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU7" t="n">
         <v>6.3</v>
@@ -1783,19 +1783,19 @@
         <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ7" t="n">
         <v>65</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -1839,97 +1839,97 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="L8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>16.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T8" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Y8" t="n">
         <v>7.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA8" t="n">
         <v>8.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
         <v>55</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL8" t="n">
         <v>75</v>
@@ -1938,34 +1938,34 @@
         <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP8" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS8" t="n">
         <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
         <v>50</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2809,10 +2809,10 @@
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2830,10 +2830,10 @@
         <v>301</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
         <v>9.5</v>
@@ -2851,13 +2851,13 @@
         <v>5</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
         <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
         <v>81</v>
@@ -2878,7 +2878,7 @@
         <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
         <v>23</v>
@@ -2890,7 +2890,7 @@
         <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WnPgMvn1</t>
+          <t>UipseV0U</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,47 +2912,47 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2979,22 +2979,22 @@
         <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
         <v>7.5</v>
@@ -3012,40 +3012,40 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
         <v>34</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
         <v>29</v>
       </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
         <v>2.5</v>
@@ -3057,34 +3057,34 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>86gnZDvo</t>
+          <t>WnPgMvn1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3099,60 +3099,60 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.4</v>
       </c>
       <c r="U15" t="n">
         <v>1.91</v>
@@ -3161,112 +3161,112 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
         <v>7.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
         <v>19</v>
       </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>34</v>
-      </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
         <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fDMH1y13</t>
+          <t>86gnZDvo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,172 +3276,354 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.65</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="n">
         <v>12</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
         <v>15</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>fDMH1y13</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB17" t="n">
         <v>35</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AC17" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD17" t="n">
         <v>6.9</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE17" t="n">
         <v>20</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF17" t="n">
         <v>120</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG17" t="n">
         <v>900</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH17" t="n">
         <v>11.25</v>
       </c>
-      <c r="AI16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AI17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM17" t="n">
         <v>75</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN17" t="n">
         <v>3.3</v>
       </c>
-      <c r="AO16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP16" t="n">
+      <c r="AO17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AP17" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AQ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR17" t="n">
         <v>65</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS17" t="n">
         <v>300</v>
       </c>
-      <c r="AT16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU16" t="n">
+      <c r="AT17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU17" t="n">
         <v>8.25</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV17" t="n">
         <v>90</v>
       </c>
-      <c r="AW16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY16" t="n">
+      <c r="AW17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY17" t="n">
         <v>40</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA16" t="n">
+      <c r="AZ17" t="n">
         <v>250</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BA17" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB17" t="n">
         <v>500</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BC17" t="n">
         <v>81</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BD17" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -971,34 +971,34 @@
         <v>4.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA3" t="n">
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
         <v>19.5</v>
       </c>
-      <c r="AC3" t="n">
-        <v>20</v>
-      </c>
       <c r="AD3" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -1010,25 +1010,25 @@
         <v>350</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO3" t="n">
         <v>5.1</v>
@@ -1037,7 +1037,7 @@
         <v>13.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -1046,22 +1046,22 @@
         <v>150</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>65</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>50</v>
       </c>
       <c r="AY3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ3" t="n">
         <v>350</v>
@@ -1117,7 +1117,7 @@
         <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.57</v>
@@ -1126,7 +1126,7 @@
         <v>2.72</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,10 +1135,10 @@
         <v>16.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="Q4" t="n">
         <v>1.35</v>
@@ -1153,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
         <v>8.25</v>
@@ -1174,43 +1174,43 @@
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC4" t="n">
         <v>19</v>
       </c>
-      <c r="AC4" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
         <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>250</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO4" t="n">
         <v>5.1</v>
@@ -1225,34 +1225,34 @@
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AY4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BA4" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BB4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1293,34 +1293,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="K5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>5.15</v>
       </c>
       <c r="Q5" t="n">
         <v>1.53</v>
@@ -1329,40 +1329,40 @@
         <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="V5" t="n">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="W5" t="n">
         <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>9.75</v>
@@ -1374,70 +1374,70 @@
         <v>120</v>
       </c>
       <c r="AH5" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP5" t="n">
         <v>14</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU5" t="n">
         <v>6.3</v>
       </c>
       <c r="AV5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB5" t="n">
         <v>150</v>
       </c>
       <c r="BC5" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1475,34 +1475,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="J6" t="n">
-        <v>4.35</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="Q6" t="n">
         <v>1.52</v>
@@ -1517,103 +1517,103 @@
         <v>3.62</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="W6" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>35</v>
       </c>
       <c r="AG6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH6" t="n">
         <v>8.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AK6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AR6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV6" t="n">
         <v>45</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AY6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB6" t="n">
         <v>150</v>
@@ -1657,34 +1657,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>3.74</v>
+        <v>3.82</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
@@ -1699,100 +1699,100 @@
         <v>3.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V7" t="n">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
         <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY7" t="n">
         <v>20</v>
       </c>
       <c r="AZ7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA7" t="n">
         <v>90</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hOj0ybX5</t>
+          <t>rqnMwgLs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.75</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>6.1</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
         <v>23</v>
       </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>55</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KAhhwK2g</t>
+          <t>C0ejqFcK</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>21</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.22</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AP9" t="n">
         <v>13</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AQ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR9" t="n">
         <v>29</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>45</v>
-      </c>
       <c r="AS9" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2Zcmv0mm</t>
+          <t>jVQ4lAZa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.42</v>
-      </c>
       <c r="W10" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
         <v>19</v>
       </c>
-      <c r="AB10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
         <v>8</v>
       </c>
-      <c r="AI10" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AV10" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.15</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.75</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>b1idxvIa</t>
+          <t>hOj0ybX5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,160 +2376,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="K11" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="L11" t="n">
         <v>7.2</v>
       </c>
       <c r="M11" t="n">
-        <v>46</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>8.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="R11" t="n">
-        <v>3.88</v>
+        <v>2.45</v>
       </c>
       <c r="S11" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="T11" t="n">
-        <v>5.25</v>
+        <v>3.56</v>
       </c>
       <c r="U11" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
-        <v>2.41</v>
+        <v>1.88</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="Z11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA11" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK11" t="n">
         <v>175</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>200</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP11" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AS11" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
         <v>50</v>
       </c>
       <c r="AY11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AZ11" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA11" t="n">
         <v>300</v>
       </c>
-      <c r="BA11" t="n">
-        <v>200</v>
-      </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BC11" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6JdJC6D4</t>
+          <t>KAhhwK2g</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>3.28</v>
       </c>
       <c r="U12" t="n">
         <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="X12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z12" t="n">
         <v>9</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
       <c r="AA12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC12" t="n">
         <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AR12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC12" t="n">
         <v>51</v>
       </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="BD12" t="n">
         <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WGtMhTAs</t>
+          <t>2Zcmv0mm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2735,174 +2735,174 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>3.32</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>2.43</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL13" t="n">
         <v>12</v>
       </c>
-      <c r="Z13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AM13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UipseV0U</t>
+          <t>b1idxvIa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Valmiera</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>9.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>46</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>1.16</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>3.88</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>2.42</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>8.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>8.25</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>28</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>10</v>
       </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>19.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC14" t="n">
-        <v>51</v>
+        <v>450</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WnPgMvn1</t>
+          <t>6JdJC6D4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="W15" t="n">
         <v>8</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
         <v>7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>15</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
       <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
         <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>86gnZDvo</t>
+          <t>WGtMhTAs</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,65 +3276,65 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3343,287 +3343,1015 @@
         <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
         <v>19</v>
       </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>UipseV0U</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Poli Iasi</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sepsi Sf. Gheorghe</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ShPVhpN7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WnPgMvn1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>86gnZDvo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>fDMH1y13</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>09/11/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>LNZ Cherkasy</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Obolon</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G21" t="n">
         <v>1.65</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>3.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>5.1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J21" t="n">
         <v>2.18</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K21" t="n">
         <v>2.07</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>5.5</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M21" t="n">
         <v>1.05</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N21" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O21" t="n">
         <v>1.37</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P21" t="n">
         <v>2.65</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q21" t="n">
         <v>2.07</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R21" t="n">
         <v>1.6</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S21" t="n">
         <v>1.42</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T21" t="n">
         <v>2.45</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U21" t="n">
         <v>2.02</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V21" t="n">
         <v>1.62</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W21" t="n">
         <v>5.6</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X21" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z21" t="n">
         <v>11.75</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB21" t="n">
         <v>35</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC21" t="n">
         <v>7.9</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD21" t="n">
         <v>6.9</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE21" t="n">
         <v>20</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF21" t="n">
         <v>120</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG21" t="n">
         <v>900</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH21" t="n">
         <v>11.25</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI21" t="n">
         <v>29</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ21" t="n">
         <v>18</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK21" t="n">
         <v>110</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL21" t="n">
         <v>65</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM21" t="n">
         <v>75</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN21" t="n">
         <v>3.3</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO21" t="n">
         <v>7.8</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP21" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ21" t="n">
         <v>26</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR21" t="n">
         <v>65</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS21" t="n">
         <v>300</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT21" t="n">
         <v>2.42</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU21" t="n">
         <v>8.25</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV21" t="n">
         <v>90</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW21" t="n">
         <v>6.7</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX21" t="n">
         <v>32</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY21" t="n">
         <v>40</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ21" t="n">
         <v>250</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA21" t="n">
         <v>300</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB21" t="n">
         <v>500</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC21" t="n">
         <v>81</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD21" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vPbLFT9h</t>
+          <t>2mVppICL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>8</v>
       </c>
-      <c r="Z3" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CxcTD7v5</t>
+          <t>A1MtEyjI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.21</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>10.25</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>5.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>17</v>
       </c>
-      <c r="AF4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AY4" t="n">
         <v>26</v>
       </c>
-      <c r="AK4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>40</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANFWCRgB</t>
+          <t>Ei0BkGE4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
         <v>3.75</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
         <v>3.25</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="W5" t="n">
-        <v>10</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
         <v>29</v>
       </c>
-      <c r="AL5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hn5yCo9H</t>
+          <t>txkzlOfc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nomme Utd</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>13.9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>4.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>3.62</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>2.48</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>11</v>
       </c>
-      <c r="AF6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AV6" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IFcPEmPb</t>
+          <t>4xHcqjRp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.75</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.14</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>2.31</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10</v>
       </c>
-      <c r="AF7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
       <c r="AI7" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AN7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rqnMwgLs</t>
+          <t>vXAE4kZP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
         <v>13</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
         <v>34</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
         <v>101</v>
       </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>51</v>
-      </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C0ejqFcK</t>
+          <t>vPbLFT9h</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>1.22</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>4.17</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="AP9" t="n">
         <v>13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AR9" t="n">
         <v>29</v>
       </c>
       <c r="AS9" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AX9" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jVQ4lAZa</t>
+          <t>CxcTD7v5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>11</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AR10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT10" t="n">
         <v>4</v>
       </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hOj0ybX5</t>
+          <t>ANFWCRgB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>8.75</v>
+        <v>2.95</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>2.52</v>
       </c>
       <c r="K11" t="n">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU11" t="n">
         <v>6.1</v>
       </c>
-      <c r="Y11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AV11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA11" t="n">
         <v>75</v>
       </c>
-      <c r="AM11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="BB11" t="n">
         <v>150</v>
       </c>
-      <c r="AT11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>350</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB11" t="n">
+      <c r="BC11" t="n">
         <v>450</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
       </c>
       <c r="BD11" t="n">
         <v>51</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KAhhwK2g</t>
+          <t>hn5yCo9H</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,167 +2548,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Nomme Utd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>4.05</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>1.62</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
-        <v>5.3</v>
+        <v>2.12</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>12.3</v>
+        <v>14.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>3.96</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T12" t="n">
-        <v>3.28</v>
+        <v>3.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="V12" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="W12" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.9</v>
+        <v>11.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AY12" t="n">
         <v>14</v>
       </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AZ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA12" t="n">
         <v>40</v>
       </c>
-      <c r="AM12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>200</v>
-      </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2Zcmv0mm</t>
+          <t>IFcPEmPb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,98 +2730,98 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>12.3</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="T13" t="n">
-        <v>3.32</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="V13" t="n">
-        <v>2.43</v>
+        <v>2.11</v>
       </c>
       <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
         <v>10.25</v>
       </c>
-      <c r="X13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Y13" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>35</v>
@@ -2830,70 +2830,70 @@
         <v>200</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.25</v>
+        <v>13.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.4</v>
+        <v>8.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AO13" t="n">
-        <v>15.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AR13" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV13" t="n">
         <v>50</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.15</v>
+        <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.75</v>
+        <v>15.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="BA13" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC13" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>b1idxvIa</t>
+          <t>rqnMwgLs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>9.75</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="V14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
         <v>7.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>46</v>
-      </c>
-      <c r="N14" t="n">
-        <v>26</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE14" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AH14" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6JdJC6D4</t>
+          <t>C0ejqFcK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,95 +3094,95 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>23</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T15" t="n">
         <v>4.33</v>
       </c>
-      <c r="J15" t="n">
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
         <v>2.38</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>9</v>
       </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
         <v>23</v>
       </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3191,61 +3191,61 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="n">
         <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR15" t="n">
         <v>29</v>
       </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>81</v>
@@ -3254,10 +3254,10 @@
         <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WGtMhTAs</t>
+          <t>jVQ4lAZa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,143 +3276,143 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
         <v>3.75</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="Q16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
         <v>3</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
         <v>15</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
         <v>12</v>
       </c>
-      <c r="Z16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
         <v>10</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="AP16" t="n">
         <v>19</v>
       </c>
-      <c r="AM16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3421,19 +3421,19 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UipseV0U</t>
+          <t>U5cnAuMH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,167 +3458,167 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Puskas Academy</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
         <v>2.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
         <v>13</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
       <c r="Z17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="n">
         <v>29</v>
       </c>
-      <c r="AA17" t="n">
-        <v>26</v>
-      </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
         <v>23</v>
       </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
       <c r="AN17" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ShPVhpN7</t>
+          <t>hOj0ybX5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,167 +3640,167 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.32</v>
+        <v>1.19</v>
       </c>
       <c r="H18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN18" t="n">
         <v>3.15</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AO18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="n">
         <v>13</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AX18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AY18" t="n">
         <v>55</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AZ18" t="n">
         <v>400</v>
       </c>
-      <c r="AH18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>75</v>
-      </c>
       <c r="BA18" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="BB18" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WnPgMvn1</t>
+          <t>KAhhwK2g</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.3</v>
       </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z19" t="n">
         <v>8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>21</v>
-      </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>9.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>18.5</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ19" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="BC19" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>86gnZDvo</t>
+          <t>2Zcmv0mm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.42</v>
+        <v>2.65</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>6.25</v>
+        <v>2.18</v>
       </c>
       <c r="J20" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>2.67</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>12.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="T20" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL20" t="n">
         <v>13</v>
       </c>
-      <c r="AD20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="AO20" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>34</v>
+        <v>10.75</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fDMH1y13</t>
+          <t>b1idxvIa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,168 +4191,1624 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Valmiera</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>6.7</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="K21" t="n">
-        <v>2.07</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>46</v>
+      </c>
+      <c r="N21" t="n">
+        <v>26</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T21" t="n">
         <v>5.5</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.45</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="V21" t="n">
-        <v>1.62</v>
+        <v>2.16</v>
       </c>
       <c r="W21" t="n">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="X21" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AB21" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.9</v>
+        <v>32</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.9</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.25</v>
+        <v>55</v>
       </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6JdJC6D4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WGtMhTAs</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.3</v>
       </c>
-      <c r="AO21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP21" t="n">
+      <c r="I23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UipseV0U</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Poli Iasi</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sepsi Sf. Gheorghe</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ShPVhpN7</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WnPgMvn1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bodrumspor</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>86gnZDvo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fDMH1y13</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE28" t="n">
         <v>19.5</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AF28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL28" t="n">
         <v>65</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AM28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS28" t="n">
         <v>300</v>
       </c>
-      <c r="AT21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AX21" t="n">
+      <c r="AT28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX28" t="n">
         <v>32</v>
       </c>
-      <c r="AY21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ21" t="n">
+      <c r="AY28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA28" t="n">
         <v>250</v>
       </c>
-      <c r="BA21" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB21" t="n">
+      <c r="BB28" t="n">
         <v>500</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BC28" t="n">
         <v>81</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD28" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>fTWaBBZG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>U3dLY70k</t>
+          <t>nucZxUhT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lok. Plovdiv</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AQ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX2" t="n">
         <v>10</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AY2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AZ2" t="n">
         <v>41</v>
       </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="BA2" t="n">
         <v>151</v>
       </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
-      </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2mVppICL</t>
+          <t>r7Mfm7Fr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ostrava</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.73</v>
+        <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>2.35</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS3" t="n">
         <v>351</v>
       </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>126</v>
-      </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AX3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="n">
         <v>41</v>
       </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
       <c r="BB3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC3" t="n">
         <v>301</v>
       </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A1MtEyjI</t>
+          <t>2mVppICL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,174 +1097,174 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Ostrava</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX4" t="n">
         <v>10</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ei0BkGE4</t>
+          <t>A1MtEyjI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
         <v>15</v>
       </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY5" t="n">
         <v>17</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AZ5" t="n">
         <v>26</v>
       </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB5" t="n">
         <v>81</v>
       </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>txkzlOfc</t>
+          <t>Ei0BkGE4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.25</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
         <v>3.25</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AZ6" t="n">
         <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4xHcqjRp</t>
+          <t>txkzlOfc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,174 +1643,174 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Burton</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD7" t="n">
         <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vXAE4kZP</t>
+          <t>4xHcqjRp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,55 +1830,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Burton</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.75</v>
@@ -1887,28 +1887,28 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1920,43 +1920,43 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
         <v>34</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>41</v>
       </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1965,25 +1965,25 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
         <v>81</v>
       </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vPbLFT9h</t>
+          <t>vXAE4kZP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>9.25</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>7.3</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>4.17</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8</v>
       </c>
-      <c r="Z9" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>29</v>
       </c>
-      <c r="AS9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>350</v>
-      </c>
       <c r="BA9" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CxcTD7v5</t>
+          <t>Q1hl8h8b</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX10" t="n">
         <v>6</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>60</v>
-      </c>
       <c r="AY10" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANFWCRgB</t>
+          <t>Ym9ohtI0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Narva</t>
+          <t>Pau FC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.07</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
         <v>12</v>
       </c>
-      <c r="AB11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.45</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.4</v>
+        <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>15.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hn5yCo9H</t>
+          <t>rqnMwgLs</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nomme Utd</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.05</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>14.2</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN12" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="W12" t="n">
-        <v>14</v>
-      </c>
-      <c r="X12" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.8</v>
+        <v>301</v>
       </c>
       <c r="AX12" t="n">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IFcPEmPb</t>
+          <t>C0ejqFcK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paide</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.85</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L13" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
+        <v>23</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="n">
         <v>11</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
         <v>4</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="AO13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX13" t="n">
         <v>8</v>
       </c>
-      <c r="X13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rqnMwgLs</t>
+          <t>jVQ4lAZa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Ulm</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>17</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
       </c>
       <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AG14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP14" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
       </c>
       <c r="AQ14" t="n">
         <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C0ejqFcK</t>
+          <t>E3EvuVmg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,170 +3094,170 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
         <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
         <v>23</v>
       </c>
-      <c r="AD15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AQ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR15" t="n">
         <v>41</v>
       </c>
-      <c r="AG15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
+      <c r="AS15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT15" t="n">
         <v>4</v>
       </c>
-      <c r="AO15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>8.5</v>
+        <v>251</v>
       </c>
       <c r="AX15" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jVQ4lAZa</t>
+          <t>EHgDgU2n</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,59 +3276,59 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Munich 1860</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ulm</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
         <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3337,25 +3337,25 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
         <v>17</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>23</v>
@@ -3367,43 +3367,43 @@
         <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
         <v>12</v>
       </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3415,31 +3415,31 @@
         <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
         <v>67</v>
       </c>
-      <c r="BA16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB16" t="n">
+      <c r="BC16" t="n">
         <v>151</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>81</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>U5cnAuMH</t>
+          <t>vBa4ZQHU</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,143 +3458,143 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Puskas Academy</t>
+          <t>Wehen</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>12</v>
-      </c>
-      <c r="X17" t="n">
-        <v>21</v>
-      </c>
       <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
         <v>13</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3603,34 +3603,34 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA17" t="n">
         <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hOj0ybX5</t>
+          <t>rq6eymmI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.19</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>12.5</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.53</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.4</v>
       </c>
-      <c r="R18" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.24</v>
-      </c>
       <c r="T18" t="n">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
         <v>2</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.77</v>
-      </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.3</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
         <v>21</v>
       </c>
-      <c r="AC18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>80</v>
+        <v>5.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KAhhwK2g</t>
+          <t>SnGWtiJt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>SG Dynamo Dresden</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>6.4</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9</v>
+        <v>2.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>12.3</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>3.94</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
         <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.9</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>19</v>
       </c>
-      <c r="AC19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>250</v>
-      </c>
       <c r="BA19" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="BC19" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2Zcmv0mm</t>
+          <t>U5cnAuMH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,170 +4004,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Puskas Academy</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>12.3</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
         <v>13</v>
       </c>
-      <c r="Y20" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z20" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AR20" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.4</v>
+        <v>51</v>
       </c>
       <c r="AX20" t="n">
-        <v>10.75</v>
+        <v>4</v>
       </c>
       <c r="AY20" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AZ20" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="BB20" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="BC20" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>b1idxvIa</t>
+          <t>IeLmO0bS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,170 +4186,170 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.13</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.39</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>9.75</v>
+        <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>46</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.14</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>4.2</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="T21" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.9</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
         <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="AP21" t="n">
-        <v>10.75</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>15.5</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>80</v>
+        <v>6.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
         <v>51</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6JdJC6D4</t>
+          <t>hOj0ybX5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Metta</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.73</v>
+        <v>1.19</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="L22" t="n">
-        <v>4.75</v>
+        <v>9.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.22</v>
       </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.33</v>
-      </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>4.17</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="X22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA22" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>13</v>
-      </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>29</v>
+        <v>11.75</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.5</v>
+        <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AZ22" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WGtMhTAs</t>
+          <t>KAhhwK2g</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4555,174 +4555,174 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>BFC Daugavpils</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="K23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R23" t="n">
         <v>2.05</v>
       </c>
-      <c r="L23" t="n">
-        <v>3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>10</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T23" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>6.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>26</v>
+        <v>9.25</v>
       </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO23" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>19</v>
-      </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>18.5</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.33</v>
+        <v>51</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC23" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UipseV0U</t>
+          <t>2Zcmv0mm</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,170 +4732,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.5</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
-      </c>
-      <c r="X24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>10</v>
-      </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AG24" t="n">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO24" t="n">
         <v>13</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>15</v>
-      </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AQ24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.75</v>
+        <v>51</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>4.45</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>11.25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="BC24" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="BD24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ShPVhpN7</t>
+          <t>b1idxvIa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,170 +4914,170 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Valmiera</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>1.14</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>6.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.85</v>
+        <v>12.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>7.2</v>
+        <v>26</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
       <c r="P25" t="n">
-        <v>3.2</v>
+        <v>12.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.21</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>4.52</v>
       </c>
       <c r="S25" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>6.19</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
+        <v>14</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA25" t="n">
         <v>8.5</v>
       </c>
-      <c r="X25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>13</v>
-      </c>
       <c r="AF25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH25" t="n">
         <v>55</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK25" t="n">
         <v>400</v>
       </c>
-      <c r="AH25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI25" t="n">
+      <c r="AL25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>450</v>
+      </c>
+      <c r="AX25" t="n">
         <v>15</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>16</v>
-      </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AZ25" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="BA25" t="n">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="BB25" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC25" t="n">
         <v>300</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>51</v>
       </c>
       <c r="BD25" t="n">
         <v>51</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WnPgMvn1</t>
+          <t>6JdJC6D4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,95 +5096,95 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.3</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X26" t="n">
         <v>8</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7</v>
-      </c>
-      <c r="X26" t="n">
-        <v>10</v>
-      </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD26" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5193,82 +5193,82 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>26</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AR26" t="n">
         <v>41</v>
       </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
       <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC26" t="n">
         <v>201</v>
       </c>
-      <c r="AT26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>276</v>
-      </c>
       <c r="BD26" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>86gnZDvo</t>
+          <t>WGtMhTAs</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,65 +5278,65 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.42</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>6.25</v>
+        <v>2.2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U27" t="n">
         <v>1.83</v>
@@ -5345,112 +5345,112 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
         <v>7</v>
       </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
+      <c r="AI27" t="n">
         <v>10</v>
       </c>
-      <c r="AA27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AJ27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>23</v>
       </c>
-      <c r="AC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="BA27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB27" t="n">
         <v>67</v>
       </c>
-      <c r="AL27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>251</v>
-      </c>
       <c r="BC27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fDMH1y13</t>
+          <t>UipseV0U</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,354 +5460,1082 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>8.15</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T28" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="U28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>6.7</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU28" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ28" t="n">
+      <c r="AV28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>29</v>
       </c>
-      <c r="AR28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>200</v>
-      </c>
       <c r="BA28" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BB28" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BD28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>ShPVhpN7</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OMLoO0Hl</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AVaG9fGc</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Amedspor</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Keciorengucu</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fDMH1y13</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>fTWaBBZG</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>09/11/2024</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>09:45</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Rampla Juniors</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Danubio</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G33" t="n">
         <v>3.4</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>3.2</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>2.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J33" t="n">
         <v>4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K33" t="n">
         <v>2.05</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>2.88</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M33" t="n">
         <v>1.07</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N33" t="n">
         <v>9</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O33" t="n">
         <v>1.36</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q33" t="n">
         <v>2.15</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R33" t="n">
         <v>1.67</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S33" t="n">
         <v>1.44</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T33" t="n">
         <v>2.63</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U33" t="n">
         <v>1.83</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V33" t="n">
         <v>1.83</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W33" t="n">
         <v>9</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X33" t="n">
         <v>17</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y33" t="n">
         <v>12</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="Z33" t="n">
         <v>34</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA33" t="n">
         <v>29</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB33" t="n">
         <v>41</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AC33" t="n">
         <v>8</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AD33" t="n">
         <v>6</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AE33" t="n">
         <v>15</v>
       </c>
-      <c r="AF29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG29" t="n">
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
         <v>301</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AH33" t="n">
         <v>7</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AI33" t="n">
         <v>10</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AJ33" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AK33" t="n">
         <v>21</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AL33" t="n">
         <v>19</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AM33" t="n">
         <v>34</v>
       </c>
-      <c r="AN29" t="n">
+      <c r="AN33" t="n">
         <v>5</v>
       </c>
-      <c r="AO29" t="n">
+      <c r="AO33" t="n">
         <v>19</v>
       </c>
-      <c r="AP29" t="n">
+      <c r="AP33" t="n">
         <v>29</v>
       </c>
-      <c r="AQ29" t="n">
+      <c r="AQ33" t="n">
         <v>67</v>
       </c>
-      <c r="AR29" t="n">
+      <c r="AR33" t="n">
         <v>81</v>
       </c>
-      <c r="AS29" t="n">
+      <c r="AS33" t="n">
         <v>251</v>
       </c>
-      <c r="AT29" t="n">
+      <c r="AT33" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU29" t="n">
+      <c r="AU33" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW29" t="n">
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX33" t="n">
         <v>4</v>
       </c>
-      <c r="AX29" t="n">
+      <c r="AY33" t="n">
         <v>13</v>
       </c>
-      <c r="AY29" t="n">
+      <c r="AZ33" t="n">
         <v>23</v>
       </c>
-      <c r="AZ29" t="n">
+      <c r="BA33" t="n">
         <v>41</v>
       </c>
-      <c r="BA29" t="n">
+      <c r="BB33" t="n">
         <v>67</v>
       </c>
-      <c r="BB29" t="n">
+      <c r="BC33" t="n">
         <v>201</v>
       </c>
-      <c r="BC29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD29" t="n">
+      <c r="BD33" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +759,7 @@
         <v>1.67</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L2" t="n">
         <v>8</v>
@@ -795,13 +795,13 @@
         <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>8.5</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -959,10 +959,10 @@
         <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,16 +971,16 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
@@ -1001,7 +1001,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1013,13 +1013,13 @@
         <v>5.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -1040,7 +1040,7 @@
         <v>81</v>
       </c>
       <c r="AR3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
         <v>351</v>
@@ -1067,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
         <v>81</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K4" t="n">
         <v>2.63</v>
       </c>
       <c r="L4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1153,10 +1153,10 @@
         <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
@@ -1165,22 +1165,22 @@
         <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1189,13 +1189,13 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
         <v>26</v>
@@ -1213,7 +1213,7 @@
         <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1231,7 +1231,7 @@
         <v>3.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1240,7 +1240,7 @@
         <v>81</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1255,7 +1255,7 @@
         <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1341,19 +1341,19 @@
         <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1374,25 +1374,25 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1422,7 +1422,7 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY5" t="n">
         <v>17</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1526,16 +1526,16 @@
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1544,13 +1544,13 @@
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>201</v>
@@ -1559,31 +1559,31 @@
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1604,10 +1604,10 @@
         <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>29</v>
@@ -1616,10 +1616,10 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -1681,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>2.3</v>
@@ -1699,22 +1699,22 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1741,16 +1741,16 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1786,19 +1786,19 @@
         <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
         <v>251</v>
@@ -1842,10 +1842,10 @@
         <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
@@ -1854,7 +1854,7 @@
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1881,16 +1881,16 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1902,10 +1902,10 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1917,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
         <v>10</v>
@@ -1944,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -2221,16 +2221,16 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
         <v>1.7</v>
@@ -2406,7 +2406,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.25</v>
@@ -2624,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2648,7 +2648,7 @@
         <v>81</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2657,10 +2657,10 @@
         <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
         <v>23</v>
@@ -2669,13 +2669,13 @@
         <v>4.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>41</v>
@@ -2699,10 +2699,10 @@
         <v>5.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
         <v>2.75</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.2</v>
@@ -2791,31 +2791,31 @@
         <v>4.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
         <v>12</v>
       </c>
       <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
         <v>10</v>
       </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2827,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="n">
         <v>26</v>
@@ -2839,19 +2839,19 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2869,7 +2869,7 @@
         <v>4.33</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>41</v>
@@ -2878,22 +2878,22 @@
         <v>301</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
         <v>81</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2937,16 +2937,16 @@
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
         <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2955,16 +2955,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -3009,7 +3009,7 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
         <v>12</v>
@@ -3024,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
@@ -3033,10 +3033,10 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>34</v>
@@ -3841,22 +3841,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3871,10 +3871,10 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
         <v>1.3</v>
@@ -3898,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
         <v>21</v>
@@ -3934,13 +3934,13 @@
         <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -3973,7 +3973,7 @@
         <v>4.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
         <v>19</v>
@@ -4041,10 +4041,10 @@
         <v>2.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4053,10 +4053,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hOj0ybX5</t>
+          <t>roBOjPjo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Metta</t>
+          <t>GKS Katowice</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.19</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>12.5</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>9.25</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX22" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AY22" t="n">
         <v>19</v>
       </c>
-      <c r="AF22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>75</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KAhhwK2g</t>
+          <t>0UVeBMe3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,179 +4550,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
         <v>12</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6.3</v>
-      </c>
       <c r="X23" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.9</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
         <v>8</v>
       </c>
-      <c r="AA23" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16</v>
-      </c>
       <c r="AI23" t="n">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18.5</v>
+        <v>67</v>
       </c>
       <c r="AR23" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="BB23" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BC23" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="BD23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2Zcmv0mm</t>
+          <t>UipseV0U</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,170 +4732,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="T24" t="n">
-        <v>3.54</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
-        <v>9.75</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU24" t="n">
         <v>9</v>
       </c>
-      <c r="AI24" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AV24" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
         <v>51</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="BD24" t="n">
         <v>51</v>
@@ -4904,7 +4904,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>b1idxvIa</t>
+          <t>ShPVhpN7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,167 +4914,167 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>Radnicki Nis</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.14</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>12.5</v>
+        <v>2.95</v>
       </c>
       <c r="J25" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="K25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
         <v>3.25</v>
       </c>
-      <c r="L25" t="n">
-        <v>9</v>
-      </c>
-      <c r="M25" t="n">
-        <v>50</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="Q25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB25" t="n">
         <v>26</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P25" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T25" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W25" t="n">
-        <v>14</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY25" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AS25" t="n">
+      <c r="AZ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA25" t="n">
         <v>75</v>
       </c>
-      <c r="AT25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>450</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>450</v>
-      </c>
       <c r="BB25" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="BC25" t="n">
         <v>300</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6JdJC6D4</t>
+          <t>OMLoO0Hl</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.2</v>
       </c>
-      <c r="K26" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX26" t="n">
         <v>5</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>13</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI26" t="n">
+      <c r="AY26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>26</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>34</v>
-      </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WGtMhTAs</t>
+          <t>AVaG9fGc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Amedspor</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.2</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="n">
         <v>15</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH27" t="n">
         <v>12</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AI27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>34</v>
       </c>
-      <c r="AA27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR27" t="n">
+      <c r="BA27" t="n">
         <v>81</v>
       </c>
-      <c r="AS27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>41</v>
-      </c>
       <c r="BB27" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UipseV0U</t>
+          <t>tUpaEEp9</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,179 +5460,179 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Oleksandriya</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sepsi Sf. Gheorghe</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
         <v>1.53</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T28" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V28" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>5.2</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI28" t="n">
         <v>29</v>
       </c>
-      <c r="AA28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>29</v>
       </c>
-      <c r="AL28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
       <c r="AR28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW28" t="n">
         <v>81</v>
       </c>
-      <c r="AS28" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV28" t="n">
+      <c r="AX28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC28" t="n">
         <v>67</v>
       </c>
-      <c r="AW28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB28" t="n">
+      <c r="BD28" t="n">
         <v>81</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ShPVhpN7</t>
+          <t>fTWaBBZG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,900 +5642,172 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Radnicki Nis</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.83</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V29" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
+        <v>9</v>
+      </c>
+      <c r="X29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
         <v>8.5</v>
       </c>
-      <c r="X29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY29" t="n">
         <v>13</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="BB29" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BC29" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>OMLoO0Hl</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Hatayspor</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>11</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AVaG9fGc</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Amedspor</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Keciorengucu</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>fDMH1y13</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>LNZ Cherkasy</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Obolon</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W32" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X32" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>37</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>fTWaBBZG</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Rampla Juniors</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W33" t="n">
-        <v>9</v>
-      </c>
-      <c r="X33" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD33" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
         <v>21</v>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX2" t="n">
         <v>4.33</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -953,10 +953,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1010,16 +1010,16 @@
         <v>451</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1055,10 +1055,10 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1067,13 +1067,13 @@
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
@@ -1180,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1219,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>34</v>
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX4" t="n">
         <v>7</v>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J5" t="n">
         <v>4.75</v>
@@ -1475,34 +1475,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
         <v>2.05</v>
@@ -1523,16 +1523,16 @@
         <v>1.95</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1562,19 +1562,19 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1610,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1619,7 +1619,7 @@
         <v>67</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jFGHcfig</t>
+          <t>0SpSquGk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.75</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>301</v>
       </c>
       <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>7</v>
       </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO7" t="n">
         <v>41</v>
       </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB7" t="n">
         <v>34</v>
       </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>101</v>
       </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hCGJcSKs</t>
+          <t>jFGHcfig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.1</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
         <v>29</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
         <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ShyrKkbe</t>
+          <t>YNRlIPon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,170 +2002,170 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hajduk Split</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Istra 1961</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>2.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>2.32</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL9" t="n">
         <v>13</v>
       </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
       <c r="AM9" t="n">
-        <v>51</v>
+        <v>19.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AW9" t="n">
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>15.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tfICbHRE</t>
+          <t>hCGJcSKs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,59 +2184,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Slovacko</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
         <v>2.88</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.05</v>
       </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2251,31 +2251,31 @@
         <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,37 +2284,37 @@
         <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
         <v>29</v>
       </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2323,40 +2323,40 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB10" t="n">
         <v>67</v>
       </c>
-      <c r="BB10" t="n">
-        <v>101</v>
-      </c>
       <c r="BC10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>f1UJvUXt</t>
+          <t>C03RMb5U</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,113 +2366,113 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Francs Borains</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
         <v>41</v>
       </c>
-      <c r="AC11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
       <c r="AG11" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2481,64 +2481,64 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>29</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="n">
         <v>41</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
         <v>81</v>
       </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>51</v>
-      </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>O2cVRz6K</t>
+          <t>UyzhwKkB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Lommel SK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>El Ismaily</t>
+          <t>Deinze</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.57</v>
-      </c>
       <c r="K12" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
         <v>19</v>
       </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
       <c r="AB12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>13</v>
       </c>
-      <c r="AK12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>23</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>29</v>
-      </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MufvC1i5</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,170 +2730,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.2</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="W13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH13" t="n">
         <v>11</v>
       </c>
-      <c r="X13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="n">
         <v>29</v>
       </c>
-      <c r="AL13" t="n">
-        <v>19</v>
-      </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>3.95</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>2.77</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AW13" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="BB13" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BC13" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dzOmI6oT</t>
+          <t>tfICbHRE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Slovacko</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
       </c>
       <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
         <v>41</v>
       </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17</v>
-      </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
         <v>67</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>81</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rVCBokjo</t>
+          <t>f1UJvUXt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,167 +3094,167 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>6.5</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
         <v>67</v>
       </c>
-      <c r="AC15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
       <c r="AG15" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>34</v>
       </c>
-      <c r="AP15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>26</v>
-      </c>
       <c r="BA15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
         <v>301</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rossAX3h</t>
+          <t>O2cVRz6K</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>El Ismaily</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>2.57</v>
       </c>
       <c r="K16" t="n">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>19</v>
+        <v>6.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>6.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>700</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>9.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AR16" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AS16" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AV16" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AW16" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>29</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>K6Uj9hO9</t>
+          <t>hlftAEwn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,134 +3458,134 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.75</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
         <v>13</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
         <v>15</v>
       </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
         <v>41</v>
       </c>
-      <c r="AG17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
         <v>41</v>
       </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3594,34 +3594,34 @@
         <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0GjNdNtA</t>
+          <t>MufvC1i5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>17</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T18" t="n">
         <v>3.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
         <v>21</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" t="n">
         <v>34</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
         <v>17</v>
       </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX18" t="n">
         <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC18" t="n">
         <v>101</v>
       </c>
-      <c r="BC18" t="n">
-        <v>301</v>
-      </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C8k1kuZq</t>
+          <t>rVCBokjo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Maghreb Fez</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>FAR Rabat</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.25</v>
       </c>
-      <c r="L19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD19" t="n">
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
         <v>41</v>
       </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AN19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO19" t="n">
         <v>34</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AP19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>26</v>
       </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
+      <c r="BA19" t="n">
         <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>51</v>
       </c>
       <c r="BB19" t="n">
         <v>67</v>
       </c>
       <c r="BC19" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8rLKvEa5</t>
+          <t>zPac9hrh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.44</v>
       </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="n">
         <v>7</v>
       </c>
-      <c r="X20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI20" t="n">
         <v>6</v>
       </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL20" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AR20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB20" t="n">
         <v>67</v>
       </c>
-      <c r="AS20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>101</v>
-      </c>
       <c r="BC20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cjd6jboB</t>
+          <t>rossAX3h</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T21" t="n">
         <v>3.75</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP21" t="n">
         <v>15</v>
       </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AQ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR21" t="n">
         <v>34</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AS21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY21" t="n">
         <v>29</v>
       </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP21" t="n">
+      <c r="AZ21" t="n">
         <v>29</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="BA21" t="n">
         <v>101</v>
       </c>
-      <c r="AS21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>41</v>
-      </c>
       <c r="BB21" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lCsrY6K0</t>
+          <t>0Gxa7WhM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,26 +4368,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
@@ -4396,10 +4396,10 @@
         <v>2.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
         <v>3.5</v>
@@ -4408,13 +4408,13 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
         <v>2.05</v>
@@ -4429,25 +4429,25 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>10</v>
       </c>
       <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
         <v>21</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>19</v>
       </c>
       <c r="AB22" t="n">
         <v>29</v>
@@ -4456,16 +4456,16 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>700</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
@@ -4474,19 +4474,19 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
         <v>13</v>
@@ -4516,7 +4516,7 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY22" t="n">
         <v>17</v>
@@ -4531,7 +4531,7 @@
         <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IRXmsJiU</t>
+          <t>C8k1kuZq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,134 +4550,134 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9</v>
+      </c>
+      <c r="X23" t="n">
         <v>11</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>9</v>
       </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
       </c>
       <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO23" t="n">
         <v>11</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>9.5</v>
       </c>
       <c r="AP23" t="n">
         <v>19</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4686,43 +4686,43 @@
         <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>23</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>29</v>
-      </c>
       <c r="BA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD23" t="n">
         <v>81</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jRAQERqR</t>
+          <t>8rLKvEa5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.37</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>8.75</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W24" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AH24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
         <v>23</v>
       </c>
-      <c r="AI24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY24" t="n">
         <v>19</v>
       </c>
-      <c r="AR24" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>60</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dYM4NKlg</t>
+          <t>Cjd6jboB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,65 +4914,65 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
         <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="S25" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
@@ -4981,112 +4981,112 @@
         <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="X25" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AB25" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AR25" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AS25" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AY25" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AZ25" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="BB25" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BC25" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0CxhyJAM</t>
+          <t>0YT0BjoB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,170 +5096,170 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>4.35</v>
+        <v>2.38</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>10.25</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP26" t="n">
         <v>21</v>
       </c>
-      <c r="Y26" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AQ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX26" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>3.7</v>
-      </c>
       <c r="AY26" t="n">
-        <v>9.75</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="BC26" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BD26" t="n">
         <v>51</v>
@@ -5268,7 +5268,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GEqBhdW9</t>
+          <t>lCsrY6K0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,65 +5278,65 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Al Taawon</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U27" t="n">
         <v>1.83</v>
@@ -5345,79 +5345,79 @@
         <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
         <v>15</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI27" t="n">
         <v>15</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
         <v>29</v>
       </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AL27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>41</v>
       </c>
-      <c r="AL27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5426,22 +5426,22 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
         <v>81</v>
       </c>
-      <c r="BB27" t="n">
-        <v>101</v>
-      </c>
       <c r="BC27" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rm6UuJn4</t>
+          <t>IRXmsJiU</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5465,174 +5465,174 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S28" t="n">
         <v>1.36</v>
       </c>
-      <c r="S28" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V28" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC28" t="n">
         <v>11</v>
       </c>
-      <c r="Y28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>5</v>
-      </c>
       <c r="AD28" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="n">
         <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>34</v>
       </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
       <c r="AR28" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS28" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA28" t="n">
         <v>81</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="BB28" t="n">
         <v>81</v>
       </c>
-      <c r="AX28" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB28" t="n">
+      <c r="BC28" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD28" t="n">
         <v>126</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x6Xkf6ZA</t>
+          <t>jRAQERqR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1.28</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="I29" t="n">
-        <v>1.62</v>
+        <v>11.75</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="K29" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="L29" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="W29" t="n">
-        <v>19</v>
+        <v>6.8</v>
       </c>
       <c r="X29" t="n">
-        <v>29</v>
+        <v>6.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>17</v>
+        <v>8.25</v>
       </c>
       <c r="Z29" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="AA29" t="n">
-        <v>41</v>
+        <v>10.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AG29" t="n">
-        <v>151</v>
+        <v>700</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.5</v>
+        <v>35</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="AO29" t="n">
-        <v>23</v>
+        <v>5.8</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>81</v>
+        <v>15.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV29" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AW29" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX29" t="n">
-        <v>3.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="AZ29" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="BB29" t="n">
-        <v>41</v>
+        <v>500</v>
       </c>
       <c r="BC29" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="BD29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>U3CUnORp</t>
+          <t>dYM4NKlg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5829,174 +5829,174 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.75</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>1.87</v>
       </c>
       <c r="S30" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="W30" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AA30" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AG30" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI30" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP30" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AQ30" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AR30" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AS30" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW30" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX30" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AY30" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AZ30" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="BA30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="BC30" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BD30" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2XUAiykn</t>
+          <t>GEqBhdW9</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,179 +6006,179 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
         <v>3.4</v>
       </c>
       <c r="Q31" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.83</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S31" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T31" t="n">
         <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
-        <v>10.75</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH31" t="n">
         <v>11</v>
       </c>
-      <c r="Z31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>8</v>
-      </c>
       <c r="AI31" t="n">
-        <v>10.25</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO31" t="n">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AR31" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT31" t="n">
         <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX31" t="n">
-        <v>4.05</v>
+        <v>6</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="BA31" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BD31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A3HRmglB</t>
+          <t>rm6UuJn4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,179 +6188,179 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.78</v>
+        <v>2.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>2.55</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="L32" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="P32" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="R32" t="n">
-        <v>2.07</v>
+        <v>1.36</v>
       </c>
       <c r="S32" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="T32" t="n">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="V32" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="W32" t="n">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="X32" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI32" t="n">
         <v>13</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>25</v>
       </c>
       <c r="AJ32" t="n">
         <v>13</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AP32" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AQ32" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AS32" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="AV32" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW32" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX32" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AY32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="BA32" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BB32" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BC32" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="BD32" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8Ia7a9Is</t>
+          <t>x6Xkf6ZA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,172 +6370,900 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.07</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="T33" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AA33" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
       </c>
       <c r="AF33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>U3CUnORp</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yverdon</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>19</v>
+      </c>
+      <c r="X34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2XUAiykn</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A3HRmglB</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Etoile-Carouge</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK36" t="n">
         <v>65</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AL36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>8Ia7a9Is</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bala</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG37" t="n">
         <v>500</v>
       </c>
-      <c r="AH33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL33" t="n">
+      <c r="AH37" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP37" t="n">
         <v>22</v>
       </c>
-      <c r="AM33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR33" t="n">
+      <c r="AQ37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR37" t="n">
         <v>100</v>
       </c>
-      <c r="AS33" t="n">
+      <c r="AS37" t="n">
         <v>250</v>
       </c>
-      <c r="AT33" t="n">
+      <c r="AT37" t="n">
         <v>2.67</v>
       </c>
-      <c r="AU33" t="n">
+      <c r="AU37" t="n">
         <v>6.6</v>
       </c>
-      <c r="AV33" t="n">
+      <c r="AV37" t="n">
         <v>55</v>
       </c>
-      <c r="AW33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AZ33" t="n">
+      <c r="AW37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ37" t="n">
         <v>20</v>
       </c>
-      <c r="BA33" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB33" t="n">
+      <c r="BA37" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB37" t="n">
         <v>90</v>
       </c>
-      <c r="BC33" t="n">
+      <c r="BC37" t="n">
         <v>250</v>
       </c>
-      <c r="BD33" t="n">
+      <c r="BD37" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD37"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1.8</v>
@@ -846,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -992,10 +992,10 @@
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1010,16 +1010,16 @@
         <v>451</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1058,22 +1058,22 @@
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1114,16 +1114,16 @@
         <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L4" t="n">
         <v>4.5</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1225,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT4" t="n">
         <v>4</v>
@@ -1258,13 +1258,13 @@
         <v>101</v>
       </c>
       <c r="BD4" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E3zhYKPO</t>
+          <t>WCfdk1hS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>17</v>
-      </c>
-      <c r="X5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AO5" t="n">
         <v>15</v>
       </c>
-      <c r="Z5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WCfdk1hS</t>
+          <t>0SpSquGk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.8</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AE6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
         <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL6" t="n">
         <v>11</v>
       </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
       <c r="AM6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB6" t="n">
         <v>34</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>67</v>
-      </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0SpSquGk</t>
+          <t>jFGHcfig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.75</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="R7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>19</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>21</v>
-      </c>
-      <c r="X7" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jFGHcfig</t>
+          <t>YNRlIPon</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>2.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>3.15</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW8" t="n">
         <v>81</v>
       </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
+      <c r="AX8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY8" t="n">
         <v>9</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AZ8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD8" t="n">
         <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YNRlIPon</t>
+          <t>hCGJcSKs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Leuven</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.37</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
         <v>9</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W9" t="n">
-        <v>14.5</v>
-      </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
         <v>29</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
         <v>29</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BC9" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hCGJcSKs</t>
+          <t>C03RMb5U</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,143 +2184,143 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Francs Borains</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R10" t="n">
         <v>2.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
         <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W10" t="n">
-        <v>9</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2329,34 +2329,34 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
         <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C03RMb5U</t>
+          <t>UyzhwKkB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,136 +2376,136 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Beveren</t>
+          <t>Lommel SK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Francs Borains</t>
+          <t>Deinze</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.67</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>13</v>
       </c>
-      <c r="AI11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>29</v>
-      </c>
       <c r="AR11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2514,19 +2514,19 @@
         <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>23</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
       <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
         <v>67</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>81</v>
       </c>
       <c r="BC11" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UyzhwKkB</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,174 +2553,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lommel SK</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Deinze</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL12" t="n">
         <v>29</v>
       </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GbLZ1izi</t>
+          <t>l8JMSidL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,173 +2730,173 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>10.25</v>
+        <v>5.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
         <v>11</v>
       </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AV13" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>18.5</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="BB13" t="n">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -3128,7 +3128,7 @@
         <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -3155,10 +3155,10 @@
         <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
         <v>6</v>
@@ -3167,7 +3167,7 @@
         <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
         <v>21</v>
@@ -3176,10 +3176,10 @@
         <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3197,7 +3197,7 @@
         <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -3218,7 +3218,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3242,7 +3242,7 @@
         <v>51</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
@@ -3295,79 +3295,79 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L16" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD16" t="n">
         <v>6.1</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF16" t="n">
         <v>80</v>
@@ -3376,67 +3376,67 @@
         <v>700</v>
       </c>
       <c r="AH16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO16" t="n">
         <v>9.25</v>
       </c>
-      <c r="AI16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR16" t="n">
         <v>65</v>
       </c>
       <c r="AS16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB16" t="n">
         <v>200</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>175</v>
       </c>
       <c r="BC16" t="n">
         <v>400</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MufvC1i5</t>
+          <t>vBuVyXkf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,77 +3640,77 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
         <v>12</v>
-      </c>
-      <c r="X18" t="n">
-        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>9.5</v>
@@ -3722,49 +3722,49 @@
         <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
         <v>29</v>
       </c>
-      <c r="AL18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
       <c r="AN18" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO18" t="n">
         <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
@@ -3773,16 +3773,16 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>351</v>
@@ -3791,28 +3791,28 @@
         <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rVCBokjo</t>
+          <t>MufvC1i5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,170 +3822,170 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="Q19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.5</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
         <v>101</v>
       </c>
       <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX19" t="n">
         <v>5</v>
       </c>
-      <c r="AI19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AY19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>19</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>26</v>
       </c>
       <c r="BA19" t="n">
         <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC19" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rossAX3h</t>
+          <t>0Gxa7WhM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
         <v>6</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
-        <v>19</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>10</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>11</v>
       </c>
-      <c r="AA21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>41</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
         <v>151</v>
       </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>81</v>
-      </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AX21" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0Gxa7WhM</t>
+          <t>C8k1kuZq</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,146 +4368,146 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM22" t="n">
         <v>29</v>
       </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AN22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO22" t="n">
         <v>11</v>
       </c>
-      <c r="AK22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
-      </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4516,22 +4516,22 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY22" t="n">
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C8k1kuZq</t>
+          <t>8rLKvEa5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,110 +4550,110 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.8</v>
       </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH23" t="n">
         <v>9</v>
       </c>
-      <c r="X23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>12</v>
-      </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
@@ -4662,67 +4662,67 @@
         <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>4.33</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
         <v>126</v>
       </c>
-      <c r="AT23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
+      <c r="AX23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="n">
         <v>81</v>
       </c>
-      <c r="AX23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>67</v>
-      </c>
       <c r="BC23" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8rLKvEa5</t>
+          <t>Cjd6jboB</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4737,90 +4737,90 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
         <v>3.2</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
         <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4829,82 +4829,82 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
         <v>29</v>
       </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
         <v>8.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD24" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cjd6jboB</t>
+          <t>0YT0BjoB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
         <v>2</v>
       </c>
-      <c r="L25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
         <v>9</v>
       </c>
-      <c r="X25" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
         <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP25" t="n">
         <v>21</v>
       </c>
-      <c r="AL25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP25" t="n">
+      <c r="AQ25" t="n">
         <v>29</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>67</v>
-      </c>
       <c r="AR25" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BC25" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0YT0BjoB</t>
+          <t>IRXmsJiU</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,134 +5096,134 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
         <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR26" t="n">
         <v>51</v>
@@ -5232,43 +5232,43 @@
         <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA26" t="n">
         <v>67</v>
       </c>
-      <c r="AW26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>101</v>
-      </c>
       <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD26" t="n">
         <v>126</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lCsrY6K0</t>
+          <t>jRAQERqR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Taawon</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.35</v>
+        <v>1.28</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>4.35</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>11.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="L27" t="n">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z27" t="n">
         <v>8</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W27" t="n">
-        <v>8</v>
-      </c>
-      <c r="X27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
       <c r="AA27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE27" t="n">
         <v>21</v>
       </c>
-      <c r="AB27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AG27" t="n">
         <v>700</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>5.8</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>15.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AS27" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV27" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="BA27" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BB27" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BC27" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IRXmsJiU</t>
+          <t>GEqBhdW9</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5465,17 +5465,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -5491,10 +5491,10 @@
         <v>2.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -5503,34 +5503,34 @@
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5542,28 +5542,28 @@
         <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
         <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
         <v>15</v>
@@ -5584,7 +5584,7 @@
         <v>9.5</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>34</v>
@@ -5593,19 +5593,19 @@
         <v>51</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX28" t="n">
         <v>6</v>
@@ -5614,25 +5614,25 @@
         <v>23</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA28" t="n">
         <v>81</v>
       </c>
       <c r="BB28" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD28" t="n">
         <v>81</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jRAQERqR</t>
+          <t>rm6UuJn4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5647,174 +5647,174 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.28</v>
+        <v>2.75</v>
       </c>
       <c r="H29" t="n">
-        <v>4.35</v>
+        <v>2.55</v>
       </c>
       <c r="I29" t="n">
-        <v>11.75</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="L29" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>3.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="T29" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V29" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="X29" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AB29" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.25</v>
+        <v>4.75</v>
       </c>
       <c r="AD29" t="n">
-        <v>9.25</v>
+        <v>5.5</v>
       </c>
       <c r="AE29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY29" t="n">
         <v>21</v>
       </c>
-      <c r="AF29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>75</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="BA29" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BC29" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dYM4NKlg</t>
+          <t>8QuZclzn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,179 +5824,179 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1.62</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="K30" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
         <v>8</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
         <v>12</v>
       </c>
-      <c r="X30" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
       <c r="AD30" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>7.6</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AP30" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AS30" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>7.7</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="BB30" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BC30" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BD30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GEqBhdW9</t>
+          <t>n3TiDX44</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,95 +6006,95 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.83</v>
       </c>
       <c r="W31" t="n">
         <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>10</v>
-      </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
@@ -6103,46 +6103,46 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
         <v>41</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO31" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU31" t="n">
         <v>8.5</v>
@@ -6151,19 +6151,19 @@
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB31" t="n">
         <v>101</v>
@@ -6172,1098 +6172,6 @@
         <v>251</v>
       </c>
       <c r="BD31" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>rm6UuJn4</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6</v>
-      </c>
-      <c r="X32" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>x6Xkf6ZA</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Lausanne</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N33" t="n">
-        <v>15</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W33" t="n">
-        <v>19</v>
-      </c>
-      <c r="X33" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>U3CUnORp</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Yverdon</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>17</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2</v>
-      </c>
-      <c r="W34" t="n">
-        <v>19</v>
-      </c>
-      <c r="X34" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2XUAiykn</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Bellinzona</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Aarau</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>75</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A3HRmglB</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Thun</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Etoile-Carouge</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X36" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>120</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>8Ia7a9Is</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>WALES - CYMRU PREMIER</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Cardiff Metropolitan</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Bala</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W37" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X37" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>90</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD37" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD31"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6HqKvGll</t>
+          <t>0zTMbytK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,160 +738,160 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
         <v>19</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
         <v>21</v>
       </c>
-      <c r="X2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP2" t="n">
         <v>15</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AQ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR2" t="n">
         <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>j5mWxZE4</t>
+          <t>dYK8BH5F</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>9.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.63</v>
       </c>
-      <c r="L4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>23</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY4" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AZ4" t="n">
         <v>15</v>
       </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="BA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB4" t="n">
         <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>67</v>
       </c>
       <c r="BC4" t="n">
         <v>101</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WCfdk1hS</t>
+          <t>S60RnKvI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>10</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH5" t="n">
         <v>12</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>23</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0SpSquGk</t>
+          <t>WCfdk1hS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W6" t="n">
         <v>8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>19</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>21</v>
-      </c>
-      <c r="X6" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
         <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="AL6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>26</v>
       </c>
-      <c r="AN6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC6" t="n">
         <v>151</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>101</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jFGHcfig</t>
+          <t>0SpSquGk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>1.77</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>301</v>
       </c>
       <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
         <v>7</v>
       </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO7" t="n">
         <v>41</v>
       </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC7" t="n">
         <v>101</v>
       </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YNRlIPon</t>
+          <t>MsZzrJp2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.75</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.2</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
         <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AX8" t="n">
         <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BB8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hCGJcSKs</t>
+          <t>UwPNKUWp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leuven</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.88</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7</v>
-      </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>19</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
         <v>67</v>
       </c>
       <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
         <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C03RMb5U</t>
+          <t>29fcemFk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Beveren</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Francs Borains</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>8</v>
       </c>
-      <c r="X10" t="n">
-        <v>9</v>
-      </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
       </c>
       <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
         <v>41</v>
       </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
         <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>81</v>
       </c>
       <c r="AX10" t="n">
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UyzhwKkB</t>
+          <t>AZc5gRq2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lommel SK</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Deinze</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.25</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>12</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
         <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
         <v>126</v>
       </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>81</v>
-      </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GbLZ1izi</t>
+          <t>YNRlIPon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,174 +2553,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="L12" t="n">
-        <v>3.85</v>
+        <v>2.52</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2.37</v>
       </c>
       <c r="W12" t="n">
-        <v>8.25</v>
+        <v>13.5</v>
       </c>
       <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH12" t="n">
         <v>10.25</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AI12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AK12" t="n">
         <v>19</v>
       </c>
-      <c r="AA12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>45</v>
-      </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AM12" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.95</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AR12" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="n">
         <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB12" t="n">
         <v>55</v>
       </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>120</v>
-      </c>
       <c r="BC12" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l8JMSidL</t>
+          <t>MTPm3lcK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
         <v>11</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>10</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX13" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AY13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>21</v>
       </c>
-      <c r="AI13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tfICbHRE</t>
+          <t>C03RMb5U</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,113 +2912,113 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Slovacko</t>
+          <t>Francs Borains</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
         <v>9</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>41</v>
@@ -3027,31 +3027,31 @@
         <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR14" t="n">
         <v>41</v>
       </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3060,10 +3060,10 @@
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3072,10 +3072,10 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>f1UJvUXt</t>
+          <t>UyzhwKkB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Lommel SK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Deinze</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
         <v>21</v>
       </c>
-      <c r="AA15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
       </c>
       <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
         <v>81</v>
       </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
+      <c r="AX15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
         <v>67</v>
       </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>101</v>
-      </c>
       <c r="BC15" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>O2cVRz6K</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,170 +3276,170 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>El Ismaily</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="W16" t="n">
-        <v>6.3</v>
+        <v>8.25</v>
       </c>
       <c r="X16" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
         <v>15.5</v>
       </c>
       <c r="AB16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL16" t="n">
         <v>29</v>
       </c>
-      <c r="AC16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>50</v>
-      </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AP16" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR16" t="n">
         <v>65</v>
       </c>
       <c r="AS16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AV16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW16" t="n">
         <v>51</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BA16" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="BB16" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="BC16" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BD16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hlftAEwn</t>
+          <t>l8JMSidL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,41 +3458,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3501,16 +3501,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3519,118 +3519,118 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
         <v>11</v>
       </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>17</v>
       </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="AR17" t="n">
         <v>41</v>
       </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vBuVyXkf</t>
+          <t>ET7QYy9K</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,170 +3640,170 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>13</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9</v>
-      </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
         <v>4.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX18" t="n">
         <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MufvC1i5</t>
+          <t>8WGzCE17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="n">
         <v>3.25</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>17</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>12</v>
-      </c>
-      <c r="X19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
+      <c r="AY19" t="n">
         <v>41</v>
       </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BB19" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC19" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zPac9hrh</t>
+          <t>tfICbHRE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Slovacko</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
         <v>34</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>17</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>41</v>
       </c>
-      <c r="AP20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
         <v>201</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="n">
         <v>251</v>
       </c>
-      <c r="AS20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV20" t="n">
+      <c r="BD20" t="n">
         <v>81</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0Gxa7WhM</t>
+          <t>O2cVRz6K</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>El Ismaily</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>700</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AW21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>4.75</v>
+        <v>6.2</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C8k1kuZq</t>
+          <t>hlftAEwn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,134 +4368,134 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P22" t="n">
         <v>3.75</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>13</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R22" t="n">
         <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
         <v>11</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE22" t="n">
         <v>17</v>
       </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>12</v>
-      </c>
       <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
         <v>41</v>
       </c>
-      <c r="AG22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR22" t="n">
         <v>51</v>
@@ -4504,10 +4504,10 @@
         <v>126</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4516,22 +4516,22 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8rLKvEa5</t>
+          <t>vBuVyXkf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,77 +4550,77 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>2.25</v>
       </c>
       <c r="H23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.2</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
         <v>3</v>
       </c>
-      <c r="K23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
         <v>9</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W23" t="n">
-        <v>7</v>
-      </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
@@ -4629,31 +4629,31 @@
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
@@ -4662,67 +4662,67 @@
         <v>34</v>
       </c>
       <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
         <v>29</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>4.33</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AX23" t="n">
         <v>5</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB23" t="n">
         <v>67</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BC23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD23" t="n">
         <v>81</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cjd6jboB</t>
+          <t>zPac9hrh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
         <v>8</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="AO24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY24" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>26</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC24" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0YT0BjoB</t>
+          <t>0Gxa7WhM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,59 +4914,59 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -4975,25 +4975,25 @@
         <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
@@ -5002,49 +5002,49 @@
         <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
         <v>67</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>51</v>
       </c>
       <c r="AS25" t="n">
         <v>151</v>
@@ -5053,40 +5053,40 @@
         <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC25" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IRXmsJiU</t>
+          <t>C8k1kuZq</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.2</v>
       </c>
-      <c r="L26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="W26" t="n">
+        <v>9</v>
+      </c>
+      <c r="X26" t="n">
         <v>11</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>9</v>
       </c>
-      <c r="Y26" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH26" t="n">
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>41</v>
       </c>
-      <c r="AL26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>34</v>
-      </c>
       <c r="AR26" t="n">
         <v>51</v>
       </c>
       <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC26" t="n">
         <v>151</v>
       </c>
-      <c r="AT26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB26" t="n">
+      <c r="BD26" t="n">
         <v>81</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jRAQERqR</t>
+          <t>8rLKvEa5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.28</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>4.35</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>11.75</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9.5</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
         <v>8</v>
       </c>
-      <c r="AA27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AD27" t="n">
-        <v>9.25</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.05</v>
+        <v>4.33</v>
       </c>
       <c r="AO27" t="n">
-        <v>5.8</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15.5</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX27" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>500</v>
+        <v>51</v>
       </c>
       <c r="BB27" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="BC27" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BD27" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GEqBhdW9</t>
+          <t>Cjd6jboB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,170 +5460,170 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.8</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="W28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI28" t="n">
         <v>11</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7</v>
-      </c>
-      <c r="X28" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB28" t="n">
+      <c r="AJ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP28" t="n">
         <v>29</v>
       </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU28" t="n">
         <v>8.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW28" t="n">
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
         <v>81</v>
       </c>
-      <c r="BB28" t="n">
-        <v>101</v>
-      </c>
       <c r="BC28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD28" t="n">
         <v>81</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rm6UuJn4</t>
+          <t>0YT0BjoB</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="H29" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.67</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.57</v>
       </c>
       <c r="W29" t="n">
         <v>6</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
         <v>12</v>
       </c>
-      <c r="Z29" t="n">
-        <v>29</v>
-      </c>
       <c r="AA29" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB29" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="n">
         <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX29" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ29" t="n">
         <v>41</v>
       </c>
       <c r="BA29" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8QuZclzn</t>
+          <t>rBlHWE9j</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,101 +5824,101 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="S30" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA30" t="n">
         <v>17</v>
       </c>
-      <c r="AA30" t="n">
-        <v>15</v>
-      </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG30" t="n">
         <v>201</v>
@@ -5927,67 +5927,67 @@
         <v>11</v>
       </c>
       <c r="AI30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>19</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>12</v>
-      </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>29</v>
       </c>
-      <c r="AM30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO30" t="n">
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU30" t="n">
         <v>10</v>
       </c>
-      <c r="AP30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8</v>
-      </c>
       <c r="AV30" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW30" t="n">
         <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ30" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA30" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB30" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC30" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD30" t="n">
         <v>81</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>n3TiDX44</t>
+          <t>8QuZclzn</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6011,167 +6011,349 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.2</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T31" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>9</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V31" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
+        <v>8</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="n">
         <v>7</v>
       </c>
-      <c r="X31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI31" t="n">
         <v>19</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>15</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="n">
         <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>67</v>
       </c>
       <c r="BB31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>n3TiDX44</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB32" t="n">
         <v>101</v>
       </c>
-      <c r="BC31" t="n">
+      <c r="BC32" t="n">
         <v>251</v>
       </c>
-      <c r="BD31" t="n">
+      <c r="BD32" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD32"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>1.95</v>
@@ -762,7 +762,7 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -789,16 +789,16 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -873,10 +873,10 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -891,7 +891,7 @@
         <v>101</v>
       </c>
       <c r="BC2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bJl87mmp</t>
+          <t>dYK8BH5F</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,160 +920,160 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>9.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>1.29</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>1.73</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>23</v>
+      </c>
+      <c r="X3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
         <v>9</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AI3" t="n">
         <v>7</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="AY3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB3" t="n">
         <v>34</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dYK8BH5F</t>
+          <t>S60RnKvI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 1</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W4" t="n">
-        <v>23</v>
-      </c>
-      <c r="X4" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB4" t="n">
         <v>251</v>
       </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
+      <c r="BC4" t="n">
         <v>501</v>
       </c>
-      <c r="AX4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>101</v>
-      </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S60RnKvI</t>
+          <t>0SpSquGk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>1.38</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>1.83</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>19</v>
+      </c>
+      <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
         <v>7</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="n">
         <v>23</v>
       </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>67</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS5" t="n">
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>6.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WCfdk1hS</t>
+          <t>MsZzrJp2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Waalwijk</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.05</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
         <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>23</v>
       </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC6" t="n">
         <v>126</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0SpSquGk</t>
+          <t>UwPNKUWp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.57</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MsZzrJp2</t>
+          <t>29fcemFk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Waalwijk</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nijmegen</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.92</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.25</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
       </c>
       <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
         <v>67</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>81</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
         <v>151</v>
       </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>51</v>
-      </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UwPNKUWp</t>
+          <t>AZc5gRq2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2007,60 +2007,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
         <v>2.25</v>
@@ -2069,28 +2069,28 @@
         <v>1.57</v>
       </c>
       <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
         <v>6.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2099,46 +2099,46 @@
         <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
         <v>67</v>
       </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2150,22 +2150,22 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29fcemFk</t>
+          <t>YNRlIPon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>2.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>4.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>2.37</v>
       </c>
       <c r="W10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN10" t="n">
         <v>5.5</v>
       </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AO10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU10" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AV10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW10" t="n">
         <v>81</v>
       </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="AX10" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AZc5gRq2</t>
+          <t>MTPm3lcK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.2</v>
       </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.57</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>2.25</v>
       </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>23</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
         <v>67</v>
       </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
+      <c r="BC11" t="n">
         <v>126</v>
       </c>
-      <c r="AX11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YNRlIPon</t>
+          <t>C03RMb5U</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,165 +2553,165 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Beveren</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Francs Borains</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>2.38</v>
       </c>
       <c r="K12" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" t="n">
         <v>9</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
       <c r="Y12" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
         <v>9</v>
       </c>
-      <c r="AD12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AP12" t="n">
         <v>19</v>
       </c>
-      <c r="AL12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MTPm3lcK</t>
+          <t>UyzhwKkB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,131 +2730,131 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Lommel SK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Deinze</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
         <v>3.4</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
         <v>21</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
@@ -2863,28 +2863,28 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2893,16 +2893,16 @@
         <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C03RMb5U</t>
+          <t>GbLZ1izi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2917,174 +2917,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Beveren</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Francs Borains</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE14" t="n">
         <v>13</v>
       </c>
-      <c r="AB14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BB14" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UyzhwKkB</t>
+          <t>l8JMSidL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,59 +3094,59 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lommel SK</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Deinze</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.63</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>9.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3155,118 +3155,118 @@
         <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
         <v>19</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AI15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>26</v>
       </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BB15" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GbLZ1izi</t>
+          <t>htQDUDR8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>29</v>
       </c>
-      <c r="AM16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>24</v>
-      </c>
       <c r="BA16" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BC16" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l8JMSidL</t>
+          <t>ET7QYy9K</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>5.25</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.73</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X17" t="n">
         <v>10</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13</v>
       </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
         <v>29</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
         <v>101</v>
       </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="BC17" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD17" t="n">
         <v>81</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ET7QYy9K</t>
+          <t>8WGzCE17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>6.25</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
@@ -3683,127 +3683,127 @@
         <v>6.5</v>
       </c>
       <c r="O18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.44</v>
       </c>
-      <c r="P18" t="n">
+      <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y18" t="n">
         <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="n">
         <v>67</v>
       </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>29</v>
-      </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW18" t="n">
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB18" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8WGzCE17</t>
+          <t>GGISx82g</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.65</v>
+        <v>2.63</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25</v>
+        <v>2.55</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
         <v>29</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>81</v>
-      </c>
       <c r="AN19" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
         <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="BC19" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tfICbHRE</t>
+          <t>hlftAEwn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,98 +4004,98 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Slovacko</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
         <v>17</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -4104,43 +4104,43 @@
         <v>301</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP20" t="n">
         <v>19</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
         <v>23</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS20" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4152,19 +4152,19 @@
         <v>81</v>
       </c>
       <c r="AX20" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AY20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
         <v>251</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>O2cVRz6K</t>
+          <t>vBuVyXkf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>El Ismaily</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="T21" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="V21" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
         <v>29</v>
       </c>
-      <c r="AC21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>55</v>
-      </c>
       <c r="AN21" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="BC21" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hlftAEwn</t>
+          <t>zPac9hrh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4373,174 +4373,174 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.65</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.25</v>
+        <v>1.53</v>
       </c>
       <c r="J22" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W22" t="n">
+        <v>13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>11</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="AL22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
         <v>8</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AO22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY22" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB22" t="n">
+      <c r="AZ22" t="n">
         <v>26</v>
       </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>34</v>
-      </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="BB22" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC22" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vBuVyXkf</t>
+          <t>0Gxa7WhM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
         <v>21</v>
       </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>11</v>
       </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>zPac9hrh</t>
+          <t>C8k1kuZq</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:35</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Legnica</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.2</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.53</v>
-      </c>
       <c r="J24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9</v>
+      </c>
+      <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
         <v>7.5</v>
       </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W24" t="n">
-        <v>13</v>
-      </c>
-      <c r="X24" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>23</v>
       </c>
-      <c r="Z24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>26</v>
-      </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
         <v>67</v>
       </c>
       <c r="BC24" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0Gxa7WhM</t>
+          <t>AFkqXMcd</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,110 +4914,110 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.4</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>9</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.05</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
@@ -5026,49 +5026,49 @@
         <v>29</v>
       </c>
       <c r="AL25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV25" t="n">
         <v>67</v>
       </c>
-      <c r="AS25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>51</v>
-      </c>
       <c r="AW25" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA25" t="n">
         <v>51</v>
@@ -5077,16 +5077,16 @@
         <v>81</v>
       </c>
       <c r="BC25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD25" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C8k1kuZq</t>
+          <t>0YT0BjoB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.1</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.25</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>13</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
         <v>2</v>
       </c>
-      <c r="S26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
         <v>9</v>
       </c>
-      <c r="X26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
         <v>19</v>
       </c>
-      <c r="AA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>12</v>
-      </c>
       <c r="AF26" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH26" t="n">
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>29</v>
       </c>
-      <c r="AN26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
       <c r="AR26" t="n">
         <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX26" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AY26" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC26" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8rLKvEa5</t>
+          <t>rBlHWE9j</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
       </c>
       <c r="K27" t="n">
         <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>11</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>21</v>
-      </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG27" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB27" t="n">
         <v>201</v>
       </c>
-      <c r="AT27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB27" t="n">
+      <c r="BC27" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD27" t="n">
         <v>81</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cjd6jboB</t>
+          <t>8QuZclzn</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,95 +5460,95 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T28" t="n">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="U28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W28" t="n">
         <v>7.5</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y28" t="n">
         <v>8.5</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>15</v>
       </c>
-      <c r="Y28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>34</v>
-      </c>
       <c r="AA28" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AD28" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5557,67 +5557,67 @@
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP28" t="n">
         <v>19</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AQ28" t="n">
         <v>29</v>
       </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
       <c r="AR28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS28" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="n">
         <v>81</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB28" t="n">
         <v>81</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0YT0BjoB</t>
+          <t>n3TiDX44</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,59 +5642,59 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
         <v>1.44</v>
@@ -5703,657 +5703,111 @@
         <v>2.63</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="n">
         <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG29" t="n">
         <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP29" t="n">
         <v>23</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ29" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT29" t="n">
         <v>2.63</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA29" t="n">
         <v>67</v>
       </c>
-      <c r="AW29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>101</v>
-      </c>
       <c r="BB29" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC29" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>rBlHWE9j</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>FC Cartagena SAD</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N30" t="n">
-        <v>8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5</v>
-      </c>
-      <c r="X30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>8QuZclzn</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Zurich</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>8</v>
-      </c>
-      <c r="X31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>n3TiDX44</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W32" t="n">
-        <v>7</v>
-      </c>
-      <c r="X32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD32" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -953,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,25 +971,25 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
@@ -1007,10 +1007,10 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>7</v>
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>11</v>
@@ -1037,7 +1037,7 @@
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR3" t="n">
         <v>151</v>
@@ -1061,7 +1061,7 @@
         <v>3.4</v>
       </c>
       <c r="AY3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ3" t="n">
         <v>15</v>
@@ -1299,7 +1299,7 @@
         <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -1311,10 +1311,10 @@
         <v>1.83</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
@@ -1323,10 +1323,10 @@
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S5" t="n">
         <v>1.29</v>
@@ -1347,7 +1347,7 @@
         <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>81</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
@@ -1681,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1699,22 +1699,22 @@
         <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
@@ -1729,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1738,25 +1738,25 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1786,7 +1786,7 @@
         <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY7" t="n">
         <v>17</v>
@@ -1795,7 +1795,7 @@
         <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>101</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
@@ -1875,16 +1875,16 @@
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1893,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1905,22 +1905,22 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1956,13 +1956,13 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>126</v>
@@ -1986,7 +1986,7 @@
         <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2021,31 +2021,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
         <v>2.5</v>
@@ -2063,25 +2063,25 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2090,7 +2090,7 @@
         <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2102,13 +2102,13 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2120,19 +2120,19 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>251</v>
@@ -2153,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2165,10 +2165,10 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2400,7 +2400,7 @@
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2421,22 +2421,22 @@
         <v>2.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
         <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2451,16 +2451,16 @@
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
         <v>126</v>
@@ -2469,25 +2469,25 @@
         <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2502,7 +2502,7 @@
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2514,10 +2514,10 @@
         <v>401</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>21</v>
@@ -2526,7 +2526,7 @@
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2570,16 +2570,16 @@
         <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.38</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
       </c>
       <c r="L12" t="n">
         <v>4.5</v>
@@ -2603,22 +2603,22 @@
         <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2630,37 +2630,37 @@
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
         <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>34</v>
@@ -2672,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
         <v>29</v>
@@ -2681,16 +2681,16 @@
         <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
         <v>81</v>
@@ -2699,10 +2699,10 @@
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>67</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,16 +2791,16 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
@@ -2836,7 +2836,7 @@
         <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2845,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
         <v>4.5</v>
@@ -2884,7 +2884,7 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="H15" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I15" t="n">
+        <v>15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L15" t="n">
         <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3143,16 +3143,16 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
         <v>2.38</v>
@@ -3161,7 +3161,7 @@
         <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3170,7 +3170,7 @@
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
@@ -3179,10 +3179,10 @@
         <v>34</v>
       </c>
       <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
         <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3194,34 +3194,34 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AL15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3230,7 +3230,7 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
         <v>11</v>
@@ -3242,7 +3242,7 @@
         <v>126</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>51</v>
@@ -3251,10 +3251,10 @@
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>501</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -3379,7 +3379,7 @@
         <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
@@ -3391,16 +3391,16 @@
         <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
         <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>67</v>
@@ -3409,7 +3409,7 @@
         <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
         <v>2.38</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
         <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.11</v>
@@ -3525,10 +3525,10 @@
         <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
@@ -3537,13 +3537,13 @@
         <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
         <v>5.5</v>
@@ -3561,7 +3561,7 @@
         <v>8.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3576,10 +3576,10 @@
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>29</v>
@@ -3621,7 +3621,7 @@
         <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
         <v>1.91</v>
@@ -3677,10 +3677,10 @@
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>1.57</v>
@@ -3740,7 +3740,7 @@
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3749,19 +3749,19 @@
         <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
         <v>67</v>
       </c>
-      <c r="AM18" t="n">
-        <v>81</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
@@ -3788,7 +3788,7 @@
         <v>81</v>
       </c>
       <c r="AX18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
@@ -3797,7 +3797,7 @@
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
         <v>251</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GGISx82g</t>
+          <t>dCiustII</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.63</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L19" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="P19" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="S19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.4</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>2.75</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>26</v>
       </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW19" t="n">
         <v>201</v>
       </c>
-      <c r="AH19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="AX19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
         <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hlftAEwn</t>
+          <t>SxmyrM2C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,65 +4004,65 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
@@ -4074,28 +4074,28 @@
         <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
       <c r="AD20" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -4104,43 +4104,43 @@
         <v>301</v>
       </c>
       <c r="AH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI20" t="n">
         <v>15</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
         <v>29</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4149,34 +4149,34 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
         <v>81</v>
       </c>
-      <c r="AX20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB20" t="n">
+      <c r="BC20" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD20" t="n">
         <v>126</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vBuVyXkf</t>
+          <t>GGISx82g</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,41 +4186,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4229,22 +4229,22 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
         <v>1.67</v>
@@ -4253,22 +4253,22 @@
         <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA21" t="n">
         <v>21</v>
       </c>
-      <c r="AA21" t="n">
-        <v>17</v>
-      </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
         <v>11</v>
@@ -4277,52 +4277,52 @@
         <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4331,19 +4331,19 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB21" t="n">
         <v>67</v>
@@ -4352,13 +4352,13 @@
         <v>151</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zPac9hrh</t>
+          <t>hlftAEwn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4373,174 +4373,174 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
         <v>7</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="X22" t="n">
         <v>7.5</v>
       </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
         <v>7</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W22" t="n">
-        <v>13</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>34</v>
       </c>
-      <c r="Y22" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD22" t="n">
         <v>81</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0Gxa7WhM</t>
+          <t>vBuVyXkf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,170 +4550,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Dusseldorf</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
+        <v>12</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
         <v>9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
         <v>23</v>
       </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C8k1kuZq</t>
+          <t>zPac9hrh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,179 +4732,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:35</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Moghreb Tetouan</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Legnica</t>
+          <t>Raja Casablanca</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
         <v>2.25</v>
       </c>
-      <c r="L24" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK24" t="n">
         <v>11</v>
       </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AL24" t="n">
         <v>17</v>
       </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>23</v>
-      </c>
       <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA24" t="n">
         <v>29</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>51</v>
       </c>
       <c r="BB24" t="n">
         <v>67</v>
       </c>
       <c r="BC24" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AFkqXMcd</t>
+          <t>p23valT6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4914,179 +4914,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.44</v>
       </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
         <v>29</v>
       </c>
-      <c r="AA25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>41</v>
-      </c>
       <c r="AC25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB25" t="n">
         <v>126</v>
       </c>
-      <c r="AX25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>81</v>
-      </c>
       <c r="BC25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD25" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0YT0BjoB</t>
+          <t>0Gxa7WhM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,41 +5096,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -5145,10 +5145,10 @@
         <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5157,25 +5157,25 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
@@ -5184,49 +5184,49 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
         <v>67</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>51</v>
       </c>
       <c r="AS26" t="n">
         <v>151</v>
@@ -5235,40 +5235,40 @@
         <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA26" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC26" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rBlHWE9j</t>
+          <t>AFkqXMcd</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,179 +5278,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.6</v>
       </c>
-      <c r="I27" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.3</v>
-      </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U27" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>11</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AK27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO27" t="n">
         <v>17</v>
       </c>
-      <c r="AB27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF27" t="n">
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
         <v>81</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
       </c>
       <c r="AS27" t="n">
         <v>251</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU27" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB27" t="n">
         <v>81</v>
       </c>
-      <c r="AW27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>201</v>
-      </c>
       <c r="BC27" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8QuZclzn</t>
+          <t>0YT0BjoB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,131 +5460,131 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="J28" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="S28" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>15</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH28" t="n">
         <v>12</v>
       </c>
       <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP28" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>29</v>
@@ -5593,46 +5593,46 @@
         <v>51</v>
       </c>
       <c r="AS28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA28" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB28" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC28" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD28" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>n3TiDX44</t>
+          <t>rBlHWE9j</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,173 +5642,719 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>9</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W29" t="n">
-        <v>7</v>
-      </c>
-      <c r="X29" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>19</v>
       </c>
-      <c r="AB29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC29" t="n">
+      <c r="AK29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO29" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
       </c>
       <c r="AQ29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>8QuZclzn</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA30" t="n">
         <v>67</v>
       </c>
-      <c r="AS29" t="n">
+      <c r="BB30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC30" t="n">
         <v>201</v>
       </c>
-      <c r="AT29" t="n">
+      <c r="BD30" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>n3TiDX44</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU29" t="n">
+      <c r="U31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX29" t="n">
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX31" t="n">
         <v>5</v>
       </c>
-      <c r="AY29" t="n">
+      <c r="AY31" t="n">
         <v>19</v>
       </c>
-      <c r="AZ29" t="n">
+      <c r="AZ31" t="n">
         <v>29</v>
       </c>
-      <c r="BA29" t="n">
+      <c r="BA31" t="n">
         <v>67</v>
       </c>
-      <c r="BB29" t="n">
+      <c r="BB31" t="n">
         <v>81</v>
       </c>
-      <c r="BC29" t="n">
+      <c r="BC31" t="n">
         <v>251</v>
       </c>
-      <c r="BD29" t="n">
-        <v>51</v>
+      <c r="BD31" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>prLbSHS6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>9</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -789,10 +789,10 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -816,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -876,7 +876,7 @@
         <v>451</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -894,7 +894,7 @@
         <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -959,10 +959,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -983,7 +983,7 @@
         <v>51</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>126</v>
@@ -998,16 +998,16 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>8</v>
@@ -1025,10 +1025,10 @@
         <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>41</v>
@@ -1037,19 +1037,19 @@
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1067,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="BA3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>34</v>
@@ -1153,10 +1153,10 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>4.75</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
         <v>2.05</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>1.62</v>
@@ -1520,10 +1520,10 @@
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1559,13 +1559,13 @@
         <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1595,7 +1595,7 @@
         <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1607,10 +1607,10 @@
         <v>4.33</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1619,7 +1619,7 @@
         <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MTPm3lcK</t>
+          <t>2mJMrAVq</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>4.33</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="P9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W9" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
       <c r="X9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>12</v>
       </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>4.33</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU9" t="n">
         <v>12</v>
       </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AV9" t="n">
         <v>126</v>
       </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
       <c r="AW9" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="AX9" t="n">
         <v>5.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
         <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l8JMSidL</t>
+          <t>MTPm3lcK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.22</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
         <v>15</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
         <v>11</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX10" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP10" t="n">
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>21</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
         <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>htQDUDR8</t>
+          <t>vwb1L9le</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,145 +2376,145 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.95</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
       </c>
       <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
         <v>15</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
         <v>10</v>
       </c>
       <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
         <v>23</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>21</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
         <v>67</v>
       </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
         <v>126</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2526,10 +2526,10 @@
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ET7QYy9K</t>
+          <t>EkR9VgC2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,143 +2548,143 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.25</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
         <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
       <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>29</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2693,34 +2693,34 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
         <v>351</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8WGzCE17</t>
+          <t>0nacMkZl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.44</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
         <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
       </c>
       <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
         <v>26</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
         <v>126</v>
       </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AX13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY13" t="n">
         <v>29</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="AZ13" t="n">
         <v>34</v>
       </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BA13" t="n">
         <v>101</v>
       </c>
-      <c r="AW13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>151</v>
-      </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dCiustII</t>
+          <t>8C25KT31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
         <v>3.75</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>23</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Q14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.4</v>
       </c>
-      <c r="R14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.22</v>
-      </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>13</v>
       </c>
-      <c r="AB14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
-      </c>
       <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>23</v>
       </c>
       <c r="AN14" t="n">
         <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY14" t="n">
         <v>15</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AZ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
         <v>67</v>
       </c>
-      <c r="AT14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>51</v>
-      </c>
       <c r="BC14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SxmyrM2C</t>
+          <t>ET7QYy9K</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
         <v>4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
       </c>
       <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
         <v>67</v>
       </c>
-      <c r="AS15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
       <c r="AW15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
         <v>126</v>
       </c>
-      <c r="AX15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB15" t="n">
+      <c r="BC15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD15" t="n">
         <v>81</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GGISx82g</t>
+          <t>8WGzCE17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>2.63</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AG16" t="n">
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO16" t="n">
         <v>10</v>
       </c>
-      <c r="AK16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>29</v>
       </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
         <v>151</v>
       </c>
-      <c r="AT16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>41</v>
-      </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vBuVyXkf</t>
+          <t>dCiustII</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.75</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
         <v>17</v>
       </c>
-      <c r="AB17" t="n">
-        <v>23</v>
-      </c>
       <c r="AC17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11</v>
       </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
       <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK17" t="n">
         <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>21</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>23</v>
-      </c>
       <c r="BA17" t="n">
         <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD17" t="n">
         <v>151</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>p23valT6</t>
+          <t>SxmyrM2C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3645,27 +3645,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>2.6</v>
@@ -3674,13 +3674,13 @@
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -3689,10 +3689,10 @@
         <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3701,22 +3701,22 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
         <v>17</v>
@@ -3725,7 +3725,7 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3737,34 +3737,34 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>34</v>
@@ -3773,7 +3773,7 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
         <v>2.63</v>
@@ -3782,37 +3782,37 @@
         <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AX18" t="n">
         <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
       </c>
       <c r="BB18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD18" t="n">
         <v>126</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AFkqXMcd</t>
+          <t>GGISx82g</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3827,174 +3827,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.5</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN19" t="n">
         <v>4.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
         <v>4.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rBlHWE9j</t>
+          <t>p23valT6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,134 +4004,134 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W20" t="n">
         <v>6.5</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="X20" t="n">
         <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15</v>
       </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
       <c r="AK20" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4140,43 +4140,43 @@
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA20" t="n">
         <v>81</v>
       </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>151</v>
-      </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8QuZclzn</t>
+          <t>AFkqXMcd</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,95 +4186,95 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
         <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>12</v>
-      </c>
       <c r="AD21" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4283,46 +4283,46 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
         <v>8</v>
@@ -4331,34 +4331,34 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
         <v>67</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>81</v>
       </c>
       <c r="BC21" t="n">
         <v>201</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>n3TiDX44</t>
+          <t>rBlHWE9j</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y22" t="n">
         <v>9</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="n">
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO22" t="n">
         <v>9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD22" t="n">
         <v>81</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>prLbSHS6</t>
+          <t>jeQ89k4T</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,172 +4550,354 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K23" t="n">
         <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.62</v>
       </c>
-      <c r="V23" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9</v>
       </c>
-      <c r="X23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
       </c>
       <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>21</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AK23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>prLbSHS6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
         <v>13</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="O24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
         <v>7</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE24" t="n">
         <v>13</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF24" t="n">
         <v>41</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG24" t="n">
         <v>151</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH24" t="n">
         <v>13</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY24" t="n">
         <v>21</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
+      <c r="AZ24" t="n">
         <v>26</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA24" t="n">
         <v>67</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB24" t="n">
         <v>81</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC24" t="n">
         <v>151</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD24" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -777,10 +777,10 @@
         <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
         <v>1.83</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1168,7 +1168,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1201,7 +1201,7 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
@@ -1350,7 +1350,7 @@
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1374,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1413,7 +1413,7 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1574,7 +1574,7 @@
         <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1583,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1857,28 +1857,28 @@
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1905,19 +1905,19 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>19</v>
@@ -1941,13 +1941,13 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1956,7 +1956,7 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GGISx82g</t>
+          <t>jRlzzGEi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,173 +2002,173 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.4</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI9" t="n">
         <v>13</v>
       </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AFkqXMcd</t>
+          <t>jeQ89k4T</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2366,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2409,136 +2409,136 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
         <v>8.5</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AX11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB11" t="n">
         <v>301</v>
       </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
-      </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jeQ89k4T</t>
+          <t>prLbSHS6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>7.5</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.2</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
         <v>34</v>
       </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AM12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
         <v>23</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
         <v>81</v>
       </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="BB12" t="n">
         <v>151</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
+      <c r="BC12" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>prLbSHS6</t>
+          <t>KGLtPqC6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,16 +2740,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
@@ -2758,49 +2758,49 @@
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2809,28 +2809,28 @@
         <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2839,37 +2839,37 @@
         <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2878,19 +2878,19 @@
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
         <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.83</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -959,16 +959,16 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.8</v>
@@ -977,16 +977,16 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1016,13 +1016,13 @@
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
         <v>29</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>251</v>
@@ -1037,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1061,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
@@ -1141,10 +1141,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1523,22 +1523,22 @@
         <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
         <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1553,16 +1553,16 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1574,16 +1574,16 @@
         <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dCiustII</t>
+          <t>jRlzzGEi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,104 +1638,104 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>U. Espanola</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>17</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>23</v>
       </c>
       <c r="AD7" t="n">
         <v>8.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
@@ -1744,25 +1744,25 @@
         <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>26</v>
@@ -1771,37 +1771,37 @@
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SxmyrM2C</t>
+          <t>IF1ncScJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
         <v>15</v>
       </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
         <v>11</v>
       </c>
-      <c r="AH8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX8" t="n">
         <v>41</v>
       </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jRlzzGEi</t>
+          <t>j3AV0Abf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.33</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
         <v>17</v>
       </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AJ9" t="n">
         <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
       </c>
       <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
         <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>p23valT6</t>
+          <t>jeQ89k4T</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,164 +2184,164 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
         <v>15</v>
       </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
         <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB10" t="n">
         <v>301</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jeQ89k4T</t>
+          <t>KGLtPqC6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,536 +2366,172 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
         <v>4.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
         <v>6</v>
       </c>
-      <c r="X11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AX11" t="n">
         <v>23</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>81</v>
       </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="BA11" t="n">
         <v>81</v>
       </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
+      <c r="BB11" t="n">
         <v>201</v>
       </c>
-      <c r="BA11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>301</v>
-      </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>prLbSHS6</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KGLtPqC6</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD13" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.83</v>
@@ -777,28 +777,28 @@
         <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -816,7 +816,7 @@
         <v>4.33</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
@@ -825,13 +825,13 @@
         <v>151</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
@@ -840,7 +840,7 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -864,10 +864,10 @@
         <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>126</v>
@@ -876,7 +876,7 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>51</v>
@@ -885,7 +885,7 @@
         <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1132,7 +1132,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1168,7 +1168,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1177,7 +1177,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1201,7 +1201,7 @@
         <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
@@ -1586,7 +1586,7 @@
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
@@ -2042,7 +2042,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2063,10 +2063,10 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2075,10 +2075,10 @@
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2102,10 +2102,10 @@
         <v>9.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -2156,13 +2156,13 @@
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>1.95</v>
@@ -2245,10 +2245,10 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -2284,10 +2284,10 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>81</v>
@@ -2302,7 +2302,7 @@
         <v>1250</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
@@ -2323,7 +2323,7 @@
         <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2338,7 +2338,7 @@
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA10" t="n">
         <v>201</v>
@@ -2409,16 +2409,16 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vwb1L9le</t>
+          <t>dWg1f7Ue</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.6</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
         <v>21</v>
       </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV3" t="n">
         <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EkR9VgC2</t>
+          <t>vwb1L9le</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,37 +1102,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1141,10 +1141,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,76 +1153,76 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
       </c>
       <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>451</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
@@ -1231,28 +1231,28 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0nacMkZl</t>
+          <t>EkR9VgC2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1317,10 +1317,10 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.08</v>
@@ -1335,22 +1335,22 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1359,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1371,31 +1371,31 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1413,28 +1413,28 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8C25KT31</t>
+          <t>0nacMkZl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,124 +1466,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
         <v>12</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AH6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
         <v>41</v>
       </c>
-      <c r="AG6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1592,31 +1592,31 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jRlzzGEi</t>
+          <t>8C25KT31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.2</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>15</v>
       </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
       <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>13</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
         <v>151</v>
       </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
         <v>23</v>
       </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IF1ncScJ</t>
+          <t>IN9hNVJr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1863,16 +1863,16 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1881,73 +1881,73 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>26</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1959,40 +1959,40 @@
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
         <v>41</v>
       </c>
-      <c r="AY8" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>j3AV0Abf</t>
+          <t>jRlzzGEi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
       </c>
       <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AM9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
         <v>23</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jeQ89k4T</t>
+          <t>IF1ncScJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,29 +2184,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -2215,100 +2215,100 @@
         <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
         <v>9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
       </c>
       <c r="AD10" t="n">
         <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM10" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>21</v>
@@ -2317,34 +2317,34 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>41</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KGLtPqC6</t>
+          <t>j3AV0Abf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,107 +2366,107 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2478,61 +2478,607 @@
         <v>34</v>
       </c>
       <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
         <v>34</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nRBv4TRj</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KGLtPqC6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
         <v>201</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN13" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP11" t="n">
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
         <v>19</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ13" t="n">
         <v>29</v>
       </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
         <v>126</v>
       </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX13" t="n">
         <v>23</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY13" t="n">
         <v>29</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ13" t="n">
         <v>81</v>
       </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
         <v>201</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC13" t="n">
         <v>501</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD13" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UJd8iehn</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2mJMrAVq</t>
+          <t>dWg1f7Ue</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,55 +738,55 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.73</v>
       </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.83</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.95</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
@@ -795,28 +795,28 @@
         <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
@@ -825,40 +825,40 @@
         <v>151</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>81</v>
       </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
@@ -870,22 +870,22 @@
         <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>51</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dWg1f7Ue</t>
+          <t>IN9hNVJr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -915,162 +915,162 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.67</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>11</v>
       </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
         <v>67</v>
       </c>
-      <c r="AC3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>151</v>
-      </c>
       <c r="AG3" t="n">
-        <v>5.5</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV3" t="n">
         <v>67</v>
       </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AW3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>151</v>
       </c>
-      <c r="AS3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV3" t="n">
+      <c r="BA3" t="n">
         <v>151</v>
       </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vwb1L9le</t>
+          <t>jRlzzGEi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
         <v>3.4</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.1</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>8.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
         <v>21</v>
       </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>13</v>
       </c>
-      <c r="AI4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>26</v>
-      </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>23</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>67</v>
       </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EkR9VgC2</t>
+          <t>IF1ncScJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,59 +1274,59 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1335,118 +1335,118 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
         <v>7</v>
       </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>451</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
         <v>9</v>
       </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0nacMkZl</t>
+          <t>j3AV0Abf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,143 +1456,143 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1601,34 +1601,34 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
         <v>101</v>
       </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8C25KT31</t>
+          <t>nRBv4TRj</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.5</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
         <v>29</v>
       </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
         <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN9hNVJr</t>
+          <t>KGLtPqC6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
         <v>13</v>
       </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
       </c>
       <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
         <v>51</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
         <v>501</v>
       </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jRlzzGEi</t>
+          <t>634HgM7l</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,95 +2002,95 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9</v>
       </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,82 +2099,82 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8</v>
       </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>101</v>
       </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IF1ncScJ</t>
+          <t>UJd8iehn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,900 +2184,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.57</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>3.55</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>9.75</v>
       </c>
       <c r="X10" t="n">
-        <v>5.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
       </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>26</v>
-      </c>
       <c r="AF10" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AJ10" t="n">
-        <v>101</v>
+        <v>17.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AM10" t="n">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>3.55</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>7.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AY10" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AZ10" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="BA10" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BB10" t="n">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>j3AV0Abf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>General Caballero JLM</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>nRBv4TRj</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Boston River</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KGLtPqC6</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Charlotte</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>12</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>UJd8iehn</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Louisville City</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1.67</v>
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -801,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>29</v>
@@ -813,7 +813,7 @@
         <v>67</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -858,13 +858,13 @@
         <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AU2" t="n">
         <v>13</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>6.5</v>
@@ -941,7 +941,7 @@
         <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -950,7 +950,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -959,10 +959,10 @@
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -995,16 +995,16 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>401</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IF1ncScJ</t>
+          <t>OvmrYgq4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Juarez</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>10</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
         <v>201</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>j3AV0Abf</t>
+          <t>K6tiWXDG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.62</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
         <v>21</v>
       </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nRBv4TRj</t>
+          <t>Y7odn3Gr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I7" t="n">
         <v>4.1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.3</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X7" t="n">
         <v>9</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
       <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="n">
         <v>15</v>
       </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="AO7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX7" t="n">
         <v>23</v>
       </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
-      </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KGLtPqC6</t>
+          <t>IF1ncScJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>23</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
       <c r="AK8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
         <v>51</v>
       </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
         <v>9</v>
       </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>634HgM7l</t>
+          <t>j3AV0Abf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.36</v>
       </c>
-      <c r="H9" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
         <v>7.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="AD9" t="n">
         <v>6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>23</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>26</v>
       </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>34</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>176</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UJd8iehn</t>
+          <t>nRBv4TRj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,167 +2189,713 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.91</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>8.75</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX10" t="n">
         <v>11</v>
       </c>
-      <c r="AA10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>27</v>
-      </c>
       <c r="AY10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KGLtPqC6</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>634HgM7l</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Atlanta Utd</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>23</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UJd8iehn</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Louisville City</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,13 +762,13 @@
         <v>1.67</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -777,16 +777,16 @@
         <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>41</v>
@@ -813,7 +813,7 @@
         <v>67</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -831,10 +831,10 @@
         <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>501</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AU2" t="n">
         <v>13</v>
@@ -873,10 +873,10 @@
         <v>151</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>51</v>
@@ -950,7 +950,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -983,7 +983,7 @@
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>11</v>
@@ -1016,7 +1016,7 @@
         <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>401</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jRlzzGEi</t>
+          <t>nwbcDY6U</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,173 +1092,173 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9</v>
       </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -2227,22 +2227,22 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U10" t="n">
         <v>1.91</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KGLtPqC6</t>
+          <t>634HgM7l</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,109 +2376,109 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J11" t="n">
         <v>1.73</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.3</v>
-      </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="n">
         <v>23</v>
       </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
@@ -2487,58 +2487,58 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AQ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR11" t="n">
         <v>29</v>
       </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AY11" t="n">
         <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>634HgM7l</t>
+          <t>UJd8iehn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,65 +2548,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>2.07</v>
       </c>
       <c r="K12" t="n">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4.55</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T12" t="n">
         <v>3.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4.33</v>
       </c>
       <c r="U12" t="n">
         <v>1.57</v>
@@ -2615,287 +2615,105 @@
         <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AB12" t="n">
         <v>19</v>
       </c>
       <c r="AC12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AX12" t="n">
         <v>23</v>
       </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>34</v>
-      </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UJd8iehn</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Louisville City</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -831,7 +831,7 @@
         <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
@@ -873,10 +873,10 @@
         <v>151</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>51</v>
@@ -1120,10 +1120,10 @@
         <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>4.75</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1153,13 +1153,13 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
         <v>8.5</v>
@@ -1171,10 +1171,10 @@
         <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1192,10 +1192,10 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
         <v>3.75</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1526,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1538,13 +1538,13 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1559,13 +1559,13 @@
         <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
@@ -1604,7 +1604,7 @@
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IF1ncScJ</t>
+          <t>nRBv4TRj</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,53 +1820,53 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
@@ -1881,106 +1881,106 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9</v>
       </c>
-      <c r="Z8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AK8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="n">
         <v>23</v>
       </c>
-      <c r="AK8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7</v>
-      </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT8" t="n">
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA8" t="n">
         <v>51</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="BB8" t="n">
         <v>201</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>501</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>j3AV0Abf</t>
+          <t>634HgM7l</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,74 +2002,74 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>26</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.4</v>
       </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
@@ -2078,43 +2078,43 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2123,58 +2123,58 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
         <v>13</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC9" t="n">
         <v>251</v>
       </c>
-      <c r="BC9" t="n">
-        <v>51</v>
-      </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nRBv4TRj</t>
+          <t>UJd8iehn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,531 +2189,167 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>4.05</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
         <v>4.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>2.37</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD10" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW10" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4</v>
-      </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>634HgM7l</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Inter Miami</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Atlanta Utd</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>23</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>12</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>UJd8iehn</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Louisville City</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -983,7 +983,7 @@
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>11</v>
@@ -1129,16 +1129,16 @@
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K5" t="n">
         <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1335,22 +1335,22 @@
         <v>3.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT5" t="n">
         <v>3.75</v>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
         <v>8</v>
@@ -1434,7 +1434,7 @@
         <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>451</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1526,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1538,7 +1538,7 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1556,16 +1556,16 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
@@ -1604,7 +1604,7 @@
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
         <v>5.25</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.73</v>
@@ -2051,10 +2051,10 @@
         <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.18</v>
@@ -2090,7 +2090,7 @@
         <v>26</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2126,13 +2126,13 @@
         <v>6.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
         <v>15</v>
       </c>
       <c r="AR9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS9" t="n">
         <v>67</v>
@@ -2141,7 +2141,7 @@
         <v>4.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2150,10 +2150,10 @@
         <v>9</v>
       </c>
       <c r="AX9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY9" t="n">
         <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>101</v>
@@ -2206,10 +2206,10 @@
         <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>2.12</v>
@@ -2230,13 +2230,13 @@
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
         <v>1.28</v>
@@ -2245,16 +2245,16 @@
         <v>3.35</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W10" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y10" t="n">
         <v>8.25</v>
@@ -2263,10 +2263,10 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC10" t="n">
         <v>9.25</v>
@@ -2275,19 +2275,19 @@
         <v>8.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
         <v>14.5</v>
@@ -2299,7 +2299,7 @@
         <v>35</v>
       </c>
       <c r="AM10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN10" t="n">
         <v>3.8</v>
@@ -2308,7 +2308,7 @@
         <v>7.7</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>22</v>
@@ -2323,19 +2323,19 @@
         <v>3.35</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX10" t="n">
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
         <v>110</v>
@@ -2350,6 +2350,188 @@
         <v>51</v>
       </c>
       <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tSZqiGYq</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -795,7 +795,7 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>8.5</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>8.5</v>
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5.5</v>
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>634HgM7l</t>
+          <t>tSZqiGYq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,354 +1456,172 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>2.37</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>2.65</v>
       </c>
       <c r="J6" t="n">
-        <v>1.73</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z6" t="n">
         <v>26</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>10</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="n">
         <v>21</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AR6" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AS6" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.5</v>
+        <v>4.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>tSZqiGYq</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OvmrYgq4</t>
+          <t>tSZqiGYq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,718 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Juarez</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>2.65</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8</v>
       </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AD3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
         <v>10</v>
       </c>
-      <c r="AA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AJ3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK3" t="n">
         <v>21</v>
       </c>
-      <c r="AC3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AV3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AW3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>451</v>
-      </c>
       <c r="BD3" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>K6tiWXDG</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Club America</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Y7odn3Gr</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Leones Negros</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Zacatecas Mineros</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>tSZqiGYq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nwbcDY6U</t>
+          <t>tSZqiGYq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,354 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>300</v>
       </c>
       <c r="AH2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI2" t="n">
         <v>17</v>
       </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>10.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC2" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
       <c r="BD2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tSZqiGYq</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>09/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Las Vegas Lights</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-09.xlsx
@@ -747,76 +747,76 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="J2" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L2" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
         <v>2.18</v>
       </c>
       <c r="W2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="X2" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.75</v>
-      </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE2" t="n">
         <v>12.5</v>
@@ -828,64 +828,64 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS2" t="n">
         <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB2" t="n">
         <v>200</v>
